--- a/nodes_source_analyses/bunkers/bunkers_p2l_direct_air_capture.converter.xlsx
+++ b/nodes_source_analyses/bunkers/bunkers_p2l_direct_air_capture.converter.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/bunkers/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9AC7E3-0420-F443-87DE-88FB1BBDAF7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54400" yWindow="-10340" windowWidth="25600" windowHeight="26820" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -42,10 +43,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -55,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="205">
   <si>
     <t>Source</t>
   </si>
@@ -334,9 +341,6 @@
     <t>typical_input_capacity</t>
   </si>
   <si>
-    <t>included in initial_investment</t>
-  </si>
-  <si>
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
   </si>
@@ -729,12 +733,15 @@
   </si>
   <si>
     <t>Obtained from presentations given by Carbon Engineering and Climeworks at the National Academy of Sciences Direct Air Capture Workshop on 24/10/2017, held in Irvine, CA, USA</t>
+  </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -742,7 +749,7 @@
     <numFmt numFmtId="167" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="[$-413]mmm\-yy;@"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1877,7 +1884,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2050,7 +2057,6 @@
     <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2091,7 +2097,6 @@
     <xf numFmtId="0" fontId="34" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2673,13 +2678,16 @@
     <cellStyle name="Hyperlink" xfId="492" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="494" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="274"/>
+    <cellStyle name="Normal 2" xfId="274" xr:uid="{00000000-0005-0000-0000-0000EF010000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2702,7 +2710,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2740,7 +2754,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2778,7 +2798,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19"/>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2816,7 +2842,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 20"/>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3337,8 +3369,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1">
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:C23"/>
@@ -3347,50 +3379,50 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="30" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="21" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="21" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="21"/>
+    <col min="1" max="1" width="3.42578125" style="30" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="21" customWidth="1"/>
+    <col min="4" max="16384" width="10.85546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="28" customFormat="1">
       <c r="A1" s="26"/>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="29" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="29"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>12</v>
@@ -3399,29 +3431,29 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="70" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="71"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="72"/>
       <c r="C10" s="73"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="72" t="s">
         <v>26</v>
@@ -3430,33 +3462,33 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="72"/>
       <c r="C12" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="72"/>
       <c r="C13" s="75" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="72"/>
       <c r="C14" s="73" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="72"/>
       <c r="C15" s="73"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="72" t="s">
         <v>31</v>
@@ -3465,49 +3497,49 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="72"/>
       <c r="C17" s="77" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="72"/>
       <c r="C18" s="78" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="72"/>
       <c r="C19" s="79" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="80"/>
       <c r="C20" s="81" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="80"/>
       <c r="C21" s="82" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="80"/>
       <c r="C22" s="83" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="B23" s="80"/>
       <c r="C23" s="84" t="s">
         <v>39</v>
@@ -3520,78 +3552,78 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="34" customWidth="1"/>
-    <col min="3" max="3" width="51.5" style="34" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="34" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="34" customWidth="1"/>
-    <col min="7" max="7" width="49.5" style="34" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" style="34" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="34" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="34"/>
+    <col min="1" max="2" width="3.42578125" style="34" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="34" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="34" customWidth="1"/>
+    <col min="7" max="7" width="49.42578125" style="34" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" style="34" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="34" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="34" customWidth="1"/>
+    <col min="11" max="16384" width="10.85546875" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="D1" s="35"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="197" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="198"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="199"/>
+    <row r="2" spans="1:11">
+      <c r="B2" s="195" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="197"/>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="200"/>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="202"/>
+    <row r="3" spans="1:11">
+      <c r="B3" s="198"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="200"/>
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="200"/>
-      <c r="C4" s="201"/>
-      <c r="D4" s="201"/>
-      <c r="E4" s="202"/>
+    <row r="4" spans="1:11">
+      <c r="B4" s="198"/>
+      <c r="C4" s="199"/>
+      <c r="D4" s="199"/>
+      <c r="E4" s="200"/>
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="203"/>
-      <c r="C5" s="204"/>
-      <c r="D5" s="204"/>
-      <c r="E5" s="205"/>
+    <row r="5" spans="1:11">
+      <c r="B5" s="201"/>
+      <c r="C5" s="202"/>
+      <c r="D5" s="202"/>
+      <c r="E5" s="203"/>
       <c r="F5" s="35"/>
       <c r="G5" s="35"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="C6" s="35"/>
       <c r="D6" s="35"/>
       <c r="E6" s="35"/>
       <c r="F6" s="35"/>
       <c r="G6" s="35"/>
     </row>
-    <row r="7" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="17" thickBot="1">
       <c r="D7" s="35"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="B8" s="36"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -3602,7 +3634,7 @@
       <c r="I8" s="19"/>
       <c r="J8" s="37"/>
     </row>
-    <row r="9" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="25" customFormat="1">
       <c r="B9" s="23"/>
       <c r="C9" s="15" t="s">
         <v>18</v>
@@ -3623,7 +3655,7 @@
       </c>
       <c r="J9" s="87"/>
     </row>
-    <row r="10" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="25" customFormat="1">
       <c r="B10" s="24"/>
       <c r="C10" s="12"/>
       <c r="D10" s="32"/>
@@ -3634,7 +3666,7 @@
       <c r="I10" s="12"/>
       <c r="J10" s="13"/>
     </row>
-    <row r="11" spans="1:11" s="25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="25" customFormat="1" ht="17" thickBot="1">
       <c r="B11" s="24"/>
       <c r="C11" s="12" t="s">
         <v>42</v>
@@ -3647,120 +3679,120 @@
       <c r="I11" s="12"/>
       <c r="J11" s="13"/>
     </row>
-    <row r="12" spans="1:11" s="148" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="149"/>
-      <c r="C12" s="141" t="s">
+    <row r="12" spans="1:11" s="147" customFormat="1" ht="16" customHeight="1" thickBot="1">
+      <c r="B12" s="148"/>
+      <c r="C12" s="140" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="142" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="150">
+      <c r="D12" s="141" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="149">
         <f>'Research data'!H7</f>
         <v>334.21720435160597</v>
       </c>
-      <c r="F12" s="141"/>
-      <c r="G12" s="151"/>
-      <c r="I12" s="144"/>
-      <c r="J12" s="152"/>
-    </row>
-    <row r="13" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="140"/>
+      <c r="G12" s="150"/>
+      <c r="I12" s="143"/>
+      <c r="J12" s="151"/>
+    </row>
+    <row r="13" spans="1:11" ht="17" thickBot="1">
       <c r="A13" s="25"/>
       <c r="B13" s="24"/>
       <c r="C13" s="93" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="150">
+      <c r="E13" s="149">
         <f>'Research data'!H8</f>
         <v>0.79514737093796295</v>
       </c>
       <c r="F13" s="38"/>
       <c r="G13" s="93"/>
       <c r="H13" s="31"/>
-      <c r="I13" s="137"/>
+      <c r="I13" s="136"/>
       <c r="J13" s="13"/>
       <c r="K13" s="25"/>
     </row>
-    <row r="14" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="17" thickBot="1">
       <c r="A14" s="95"/>
       <c r="B14" s="96"/>
       <c r="C14" s="130" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="150">
+      <c r="E14" s="149">
         <f>'Research data'!H9</f>
         <v>0.20485262906203705</v>
       </c>
       <c r="F14" s="93"/>
       <c r="G14" s="130"/>
       <c r="H14" s="93"/>
-      <c r="I14" s="137"/>
+      <c r="I14" s="136"/>
       <c r="J14" s="97"/>
       <c r="K14" s="35"/>
     </row>
-    <row r="15" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="17" thickBot="1">
       <c r="A15" s="95"/>
       <c r="B15" s="96"/>
       <c r="C15" s="116" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="150">
+      <c r="E15" s="149">
         <f>'Research data'!H10</f>
         <v>0.51627279830998551</v>
       </c>
       <c r="F15" s="93"/>
       <c r="G15" s="93"/>
       <c r="H15" s="93"/>
-      <c r="I15" s="137"/>
+      <c r="I15" s="136"/>
       <c r="J15" s="97"/>
       <c r="K15" s="35"/>
     </row>
-    <row r="16" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="17" thickBot="1">
       <c r="B16" s="96"/>
       <c r="C16" s="93" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="150">
+      <c r="E16" s="149">
         <f>'Research data'!H11</f>
         <v>0.48372720169001449</v>
       </c>
       <c r="F16" s="93"/>
       <c r="G16" s="93"/>
       <c r="H16" s="93"/>
-      <c r="I16" s="137"/>
+      <c r="I16" s="136"/>
       <c r="J16" s="97"/>
     </row>
-    <row r="17" spans="1:11" s="139" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="140"/>
-      <c r="C17" s="141" t="s">
+    <row r="17" spans="1:11" s="138" customFormat="1" ht="16" customHeight="1" thickBot="1">
+      <c r="B17" s="139"/>
+      <c r="C17" s="140" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="142" t="s">
+      <c r="D17" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="150">
+      <c r="E17" s="149">
         <f>'Research data'!H12</f>
         <v>8000</v>
       </c>
-      <c r="F17" s="141"/>
-      <c r="G17" s="141"/>
-      <c r="I17" s="144"/>
-      <c r="J17" s="145"/>
-      <c r="K17" s="146"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="144"/>
+      <c r="K17" s="145"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="B18" s="39"/>
       <c r="C18" s="35"/>
       <c r="D18" s="35"/>
@@ -3771,7 +3803,7 @@
       <c r="I18" s="35"/>
       <c r="J18" s="88"/>
     </row>
-    <row r="19" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="17" thickBot="1">
       <c r="B19" s="39"/>
       <c r="C19" s="12" t="s">
         <v>41</v>
@@ -3784,7 +3816,7 @@
       <c r="I19" s="35"/>
       <c r="J19" s="88"/>
     </row>
-    <row r="20" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="17" thickBot="1">
       <c r="B20" s="39"/>
       <c r="C20" s="38" t="s">
         <v>21</v>
@@ -3792,7 +3824,7 @@
       <c r="D20" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="147">
+      <c r="E20" s="146">
         <f>'Research data'!H15</f>
         <v>8931252725.528389</v>
       </c>
@@ -3804,7 +3836,7 @@
       <c r="I20" s="134"/>
       <c r="J20" s="88"/>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="B21" s="39"/>
       <c r="C21" s="38" t="s">
         <v>22</v>
@@ -3812,7 +3844,7 @@
       <c r="D21" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="147">
+      <c r="E21" s="146">
         <f>'Research data'!H16</f>
         <v>42556470.040991947</v>
       </c>
@@ -3824,7 +3856,7 @@
       <c r="I21" s="134"/>
       <c r="J21" s="88"/>
     </row>
-    <row r="22" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="17" thickBot="1">
       <c r="B22" s="111"/>
       <c r="C22" s="118" t="s">
         <v>65</v>
@@ -3844,15 +3876,15 @@
       <c r="I22" s="134"/>
       <c r="J22" s="115"/>
     </row>
-    <row r="23" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="17" thickBot="1">
       <c r="B23" s="111"/>
       <c r="C23" s="118" t="s">
         <v>64</v>
       </c>
       <c r="D23" s="113"/>
-      <c r="E23" s="40">
-        <f>'Research data'!H22</f>
-        <v>0</v>
+      <c r="E23" s="40" t="e">
+        <f>'Research data'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F23" s="114"/>
       <c r="G23" s="118" t="s">
@@ -3862,14 +3894,14 @@
       <c r="I23" s="125"/>
       <c r="J23" s="115"/>
     </row>
-    <row r="24" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="17" thickBot="1">
       <c r="B24" s="111"/>
       <c r="C24" s="126" t="s">
         <v>71</v>
       </c>
       <c r="D24" s="113"/>
       <c r="E24" s="40">
-        <f>'Research data'!H23</f>
+        <f>'Research data'!H22</f>
         <v>0</v>
       </c>
       <c r="F24" s="114"/>
@@ -3880,7 +3912,7 @@
       <c r="I24" s="135"/>
       <c r="J24" s="115"/>
     </row>
-    <row r="25" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="17" thickBot="1">
       <c r="A25" s="95"/>
       <c r="B25" s="96"/>
       <c r="C25" s="93" t="s">
@@ -3890,17 +3922,19 @@
         <v>49</v>
       </c>
       <c r="E25" s="98">
-        <v>0.04</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F25" s="93"/>
       <c r="G25" s="93" t="s">
         <v>50</v>
       </c>
       <c r="H25" s="93"/>
-      <c r="I25" s="137"/>
+      <c r="I25" s="136" t="s">
+        <v>204</v>
+      </c>
       <c r="J25" s="97"/>
     </row>
-    <row r="26" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="17" thickBot="1">
       <c r="A26" s="95"/>
       <c r="B26" s="96"/>
       <c r="C26" s="93" t="s">
@@ -3918,7 +3952,7 @@
       <c r="I26" s="94"/>
       <c r="J26" s="97"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="A27" s="95"/>
       <c r="B27" s="96"/>
       <c r="C27" s="93"/>
@@ -3930,7 +3964,7 @@
       <c r="I27" s="99"/>
       <c r="J27" s="97"/>
     </row>
-    <row r="28" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="17" thickBot="1">
       <c r="A28" s="95"/>
       <c r="B28" s="96"/>
       <c r="C28" s="12" t="s">
@@ -3943,7 +3977,7 @@
       <c r="I28" s="99"/>
       <c r="J28" s="97"/>
     </row>
-    <row r="29" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="17" thickBot="1">
       <c r="A29" s="95"/>
       <c r="B29" s="96"/>
       <c r="C29" s="93" t="s">
@@ -3953,7 +3987,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="98">
-        <f>'Research data'!H26</f>
+        <f>'Research data'!H25</f>
         <v>25</v>
       </c>
       <c r="F29" s="93"/>
@@ -3964,7 +3998,7 @@
       <c r="I29" s="134"/>
       <c r="J29" s="97"/>
     </row>
-    <row r="30" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="17" thickBot="1">
       <c r="A30" s="95"/>
       <c r="B30" s="96"/>
       <c r="C30" s="93" t="s">
@@ -3974,7 +4008,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="98">
-        <f>'Research data'!H27</f>
+        <f>'Research data'!H26</f>
         <v>0</v>
       </c>
       <c r="F30" s="93"/>
@@ -3985,7 +4019,7 @@
       <c r="I30" s="94"/>
       <c r="J30" s="97"/>
     </row>
-    <row r="31" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="17" thickBot="1">
       <c r="A31" s="95"/>
       <c r="B31" s="96"/>
       <c r="C31" s="93" t="s">
@@ -3995,7 +4029,7 @@
         <v>54</v>
       </c>
       <c r="E31" s="98">
-        <f>'Research data'!H28</f>
+        <f>'Research data'!H27</f>
         <v>0</v>
       </c>
       <c r="F31" s="93"/>
@@ -4003,10 +4037,10 @@
         <v>58</v>
       </c>
       <c r="H31" s="93"/>
-      <c r="I31" s="137"/>
+      <c r="I31" s="136"/>
       <c r="J31" s="97"/>
     </row>
-    <row r="32" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="17" thickBot="1">
       <c r="A32" s="95"/>
       <c r="B32" s="96"/>
       <c r="C32" s="93" t="s">
@@ -4021,10 +4055,10 @@
       <c r="F32" s="93"/>
       <c r="G32" s="93"/>
       <c r="H32" s="93"/>
-      <c r="I32" s="137"/>
+      <c r="I32" s="136"/>
       <c r="J32" s="97"/>
     </row>
-    <row r="33" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="17" thickBot="1">
       <c r="A33" s="95"/>
       <c r="B33" s="102"/>
       <c r="C33" s="103"/>
@@ -4036,7 +4070,7 @@
       <c r="I33" s="103"/>
       <c r="J33" s="104"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34" s="95"/>
       <c r="B34" s="95"/>
       <c r="C34" s="95"/>
@@ -4048,7 +4082,7 @@
       <c r="I34" s="95"/>
       <c r="J34" s="95"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35" s="95"/>
       <c r="B35" s="95"/>
       <c r="C35" s="95"/>
@@ -4060,7 +4094,7 @@
       <c r="I35" s="95"/>
       <c r="J35" s="95"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36" s="95"/>
       <c r="B36" s="95"/>
       <c r="C36" s="95"/>
@@ -4072,7 +4106,7 @@
       <c r="I36" s="95"/>
       <c r="J36" s="95"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" s="95"/>
       <c r="B37" s="95"/>
       <c r="E37" s="95"/>
@@ -4082,7 +4116,7 @@
       <c r="I37" s="95"/>
       <c r="J37" s="95"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" s="95"/>
       <c r="B38" s="95"/>
       <c r="C38" s="95"/>
@@ -4094,7 +4128,7 @@
       <c r="I38" s="95"/>
       <c r="J38" s="95"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39" s="95"/>
       <c r="B39" s="95"/>
       <c r="C39" s="95"/>
@@ -4106,7 +4140,7 @@
       <c r="I39" s="95"/>
       <c r="J39" s="95"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="A40" s="95"/>
       <c r="B40" s="95"/>
       <c r="C40" s="95"/>
@@ -4118,7 +4152,7 @@
       <c r="I40" s="95"/>
       <c r="J40" s="95"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="A41" s="95"/>
       <c r="B41" s="95"/>
       <c r="C41" s="95"/>
@@ -4130,10 +4164,10 @@
       <c r="I41" s="95"/>
       <c r="J41" s="95"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="A42" s="95"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="A43" s="95"/>
     </row>
   </sheetData>
@@ -4146,42 +4180,42 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A2:S29"/>
+  <dimension ref="A2:S28"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="41" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="41" customWidth="1"/>
     <col min="2" max="2" width="3" style="41" customWidth="1"/>
     <col min="3" max="3" width="61" style="41" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="41" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="41" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="41" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="41" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="41" customWidth="1"/>
     <col min="7" max="7" width="3" style="41" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" style="41" customWidth="1"/>
-    <col min="9" max="9" width="2.5" style="41" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="41" customWidth="1"/>
-    <col min="11" max="11" width="2.5" style="41" customWidth="1"/>
-    <col min="12" max="12" width="15.83203125" style="41" customWidth="1"/>
-    <col min="13" max="13" width="2.6640625" style="41" customWidth="1"/>
-    <col min="14" max="14" width="15.83203125" style="41" customWidth="1"/>
-    <col min="15" max="15" width="2.5" style="41" customWidth="1"/>
-    <col min="16" max="16" width="23.5" style="41" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="41" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" style="41" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="41" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" style="41" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="41" customWidth="1"/>
+    <col min="13" max="13" width="2.7109375" style="41" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" style="41" customWidth="1"/>
+    <col min="15" max="15" width="2.42578125" style="41" customWidth="1"/>
+    <col min="16" max="16" width="23.42578125" style="41" customWidth="1"/>
     <col min="17" max="17" width="11" style="41" customWidth="1"/>
-    <col min="18" max="18" width="2.5" style="41" customWidth="1"/>
-    <col min="19" max="19" width="22.5" style="41" customWidth="1"/>
-    <col min="20" max="16384" width="10.83203125" style="41"/>
+    <col min="18" max="18" width="2.42578125" style="41" customWidth="1"/>
+    <col min="19" max="19" width="22.42578125" style="41" customWidth="1"/>
+    <col min="20" max="16384" width="10.85546875" style="41"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="17" thickBot="1"/>
+    <row r="3" spans="1:19">
       <c r="B3" s="42"/>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
@@ -4201,7 +4235,7 @@
       <c r="R3" s="43"/>
       <c r="S3" s="43"/>
     </row>
-    <row r="4" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" s="25" customFormat="1">
       <c r="B4" s="24"/>
       <c r="C4" s="85" t="s">
         <v>18</v>
@@ -4226,7 +4260,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="18" customHeight="1">
       <c r="B5" s="44"/>
       <c r="C5" s="48"/>
       <c r="D5" s="48"/>
@@ -4243,7 +4277,7 @@
       <c r="O5" s="46"/>
       <c r="P5" s="51"/>
     </row>
-    <row r="6" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="18" customHeight="1" thickBot="1">
       <c r="B6" s="44"/>
       <c r="C6" s="12" t="s">
         <v>42</v>
@@ -4259,17 +4293,17 @@
       <c r="L6" s="10"/>
       <c r="M6" s="49"/>
     </row>
-    <row r="7" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="17" thickBot="1">
       <c r="B7" s="44"/>
-      <c r="C7" s="141" t="s">
+      <c r="C7" s="140" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="142" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="150"/>
-      <c r="F7" s="142" t="s">
-        <v>80</v>
+      <c r="D7" s="141" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="149"/>
+      <c r="F7" s="141" t="s">
+        <v>79</v>
       </c>
       <c r="G7" s="86"/>
       <c r="H7" s="131">
@@ -4277,7 +4311,7 @@
         <v>334.21720435160597</v>
       </c>
       <c r="I7" s="46"/>
-      <c r="J7" s="164">
+      <c r="J7" s="162">
         <f>Notes!D120</f>
         <v>334.21720435160597</v>
       </c>
@@ -4285,11 +4319,11 @@
       <c r="L7" s="46"/>
       <c r="M7" s="92"/>
     </row>
-    <row r="8" spans="1:19" s="34" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" s="34" customFormat="1" ht="17" thickBot="1">
       <c r="A8" s="25"/>
       <c r="B8" s="24"/>
       <c r="C8" s="93" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>2</v>
@@ -4299,21 +4333,21 @@
         <v>2</v>
       </c>
       <c r="G8" s="93"/>
-      <c r="H8" s="165">
+      <c r="H8" s="163">
         <f>J8</f>
         <v>0.79514737093796295</v>
       </c>
-      <c r="J8" s="164">
+      <c r="J8" s="162">
         <f>Notes!E109</f>
         <v>0.79514737093796295</v>
       </c>
       <c r="K8" s="25"/>
     </row>
-    <row r="9" spans="1:19" s="34" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" s="34" customFormat="1" ht="17" thickBot="1">
       <c r="A9" s="95"/>
       <c r="B9" s="96"/>
       <c r="C9" s="130" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>2</v>
@@ -4323,21 +4357,21 @@
         <v>2</v>
       </c>
       <c r="G9" s="130"/>
-      <c r="H9" s="165">
+      <c r="H9" s="163">
         <f t="shared" ref="H9:H12" si="0">J9</f>
         <v>0.20485262906203705</v>
       </c>
-      <c r="J9" s="164">
+      <c r="J9" s="162">
         <f>Notes!E110</f>
         <v>0.20485262906203705</v>
       </c>
       <c r="K9" s="35"/>
     </row>
-    <row r="10" spans="1:19" s="34" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" s="34" customFormat="1" ht="17" thickBot="1">
       <c r="A10" s="95"/>
       <c r="B10" s="96"/>
       <c r="C10" s="116" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>2</v>
@@ -4347,20 +4381,20 @@
         <v>2</v>
       </c>
       <c r="G10" s="93"/>
-      <c r="H10" s="165">
+      <c r="H10" s="163">
         <f t="shared" si="0"/>
         <v>0.51627279830998551</v>
       </c>
-      <c r="J10" s="164">
+      <c r="J10" s="162">
         <f>Notes!E111</f>
         <v>0.51627279830998551</v>
       </c>
       <c r="K10" s="35"/>
     </row>
-    <row r="11" spans="1:19" s="34" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" s="34" customFormat="1" ht="17" thickBot="1">
       <c r="B11" s="96"/>
       <c r="C11" s="93" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>2</v>
@@ -4370,34 +4404,34 @@
         <v>2</v>
       </c>
       <c r="G11" s="93"/>
-      <c r="H11" s="165">
+      <c r="H11" s="163">
         <f t="shared" si="0"/>
         <v>0.48372720169001449</v>
       </c>
-      <c r="J11" s="164">
+      <c r="J11" s="162">
         <f>Notes!E112</f>
         <v>0.48372720169001449</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="17" thickBot="1">
       <c r="A12" s="95"/>
       <c r="B12" s="96"/>
-      <c r="C12" s="141" t="s">
+      <c r="C12" s="140" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="142" t="s">
+      <c r="D12" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="143"/>
-      <c r="F12" s="142" t="s">
+      <c r="E12" s="142"/>
+      <c r="F12" s="141" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="165">
+      <c r="H12" s="163">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
       <c r="I12" s="93"/>
-      <c r="J12" s="162">
+      <c r="J12" s="160">
         <f>Notes!E19</f>
         <v>8000</v>
       </c>
@@ -4406,7 +4440,7 @@
       <c r="M12" s="117"/>
       <c r="N12" s="95"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19">
       <c r="B13" s="44"/>
       <c r="C13" s="35"/>
       <c r="D13" s="35"/>
@@ -4422,7 +4456,7 @@
       <c r="O13" s="46"/>
       <c r="P13" s="117"/>
     </row>
-    <row r="14" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="17" thickBot="1">
       <c r="A14" s="95"/>
       <c r="B14" s="96"/>
       <c r="C14" s="12" t="s">
@@ -4441,7 +4475,7 @@
       <c r="O14" s="105"/>
       <c r="P14" s="51"/>
     </row>
-    <row r="15" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="17" thickBot="1">
       <c r="A15" s="95"/>
       <c r="B15" s="96"/>
       <c r="C15" s="38" t="s">
@@ -4450,11 +4484,11 @@
       <c r="D15" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="147"/>
+      <c r="E15" s="146"/>
       <c r="F15" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="161">
+      <c r="H15" s="159">
         <f>J15</f>
         <v>8931252725.528389</v>
       </c>
@@ -4470,7 +4504,7 @@
       <c r="O15" s="105"/>
       <c r="P15" s="92"/>
     </row>
-    <row r="16" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="17" thickBot="1">
       <c r="A16" s="95"/>
       <c r="B16" s="96"/>
       <c r="C16" s="38" t="s">
@@ -4497,7 +4531,7 @@
       <c r="K16" s="105"/>
       <c r="P16" s="92"/>
     </row>
-    <row r="17" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="17" thickBot="1">
       <c r="A17" s="95"/>
       <c r="B17" s="96"/>
       <c r="C17" s="118" t="s">
@@ -4524,7 +4558,7 @@
       <c r="O17" s="105"/>
       <c r="P17" s="108"/>
     </row>
-    <row r="18" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="17" thickBot="1">
       <c r="A18" s="95"/>
       <c r="B18" s="96"/>
       <c r="C18" s="118" t="s">
@@ -4547,7 +4581,7 @@
       <c r="O18" s="105"/>
       <c r="P18" s="108"/>
     </row>
-    <row r="19" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="17" thickBot="1">
       <c r="A19" s="95"/>
       <c r="B19" s="96"/>
       <c r="C19" s="118" t="s">
@@ -4570,7 +4604,7 @@
       <c r="O19" s="100"/>
       <c r="P19" s="108"/>
     </row>
-    <row r="20" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="17" thickBot="1">
       <c r="A20" s="95"/>
       <c r="B20" s="96"/>
       <c r="C20" s="126" t="s">
@@ -4593,7 +4627,7 @@
       <c r="O20" s="100"/>
       <c r="P20" s="108"/>
     </row>
-    <row r="21" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="17" thickBot="1">
       <c r="A21" s="120"/>
       <c r="B21" s="121"/>
       <c r="C21" s="118" t="s">
@@ -4618,97 +4652,92 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="120"/>
-      <c r="B22" s="121"/>
-      <c r="C22" s="153" t="s">
-        <v>48</v>
+    <row r="22" spans="1:16" ht="17" thickBot="1">
+      <c r="A22" s="95"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="93" t="s">
+        <v>51</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E22" s="98">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="G22" s="120"/>
-      <c r="H22" s="122">
+        <v>52</v>
+      </c>
+      <c r="H22" s="107">
         <f>J22</f>
         <v>0</v>
       </c>
-      <c r="I22" s="123"/>
-      <c r="J22" s="122"/>
-      <c r="K22" s="123"/>
-      <c r="O22" s="120"/>
-      <c r="P22" s="136" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="95"/>
-      <c r="B23" s="96"/>
-      <c r="C23" s="93" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="98">
-        <v>0</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="H23" s="107">
+      <c r="I22" s="100"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="100"/>
+      <c r="N22" s="100"/>
+      <c r="O22" s="100"/>
+      <c r="P22" s="108"/>
+    </row>
+    <row r="23" spans="1:16" ht="17" thickBot="1">
+      <c r="A23" s="120"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="120"/>
+      <c r="H23" s="122">
         <f>J23</f>
         <v>0</v>
       </c>
-      <c r="I23" s="100"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="100"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="100"/>
-      <c r="N23" s="100"/>
-      <c r="O23" s="100"/>
-      <c r="P23" s="108"/>
-    </row>
-    <row r="24" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="120"/>
-      <c r="B24" s="121"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="22"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="122"/>
+      <c r="K23" s="123"/>
+      <c r="O23" s="120"/>
+      <c r="P23" s="117" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="17" thickBot="1">
+      <c r="C24" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="89"/>
       <c r="E24" s="101"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="120"/>
-      <c r="H24" s="122">
-        <f>J24</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="123"/>
-      <c r="J24" s="122"/>
-      <c r="K24" s="123"/>
-      <c r="O24" s="120"/>
-      <c r="P24" s="117" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="89"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="89"/>
-      <c r="H25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="P25" s="49"/>
-    </row>
-    <row r="26" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="44"/>
+      <c r="F24" s="89"/>
+      <c r="H24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="P24" s="49"/>
+    </row>
+    <row r="25" spans="1:16" ht="17" thickBot="1">
+      <c r="B25" s="44"/>
+      <c r="C25" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="98"/>
+      <c r="F25" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="107">
+        <f>J25</f>
+        <v>25</v>
+      </c>
+      <c r="J25" s="162">
+        <f>Notes!E18</f>
+        <v>25</v>
+      </c>
+      <c r="P25" s="92"/>
+    </row>
+    <row r="26" spans="1:16" ht="17" thickBot="1">
+      <c r="A26" s="95"/>
+      <c r="B26" s="96"/>
       <c r="C26" s="93" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>1</v>
@@ -4718,91 +4747,68 @@
         <v>1</v>
       </c>
       <c r="H26" s="107">
-        <f>J26</f>
-        <v>25</v>
-      </c>
-      <c r="J26" s="164">
-        <f>Notes!E18</f>
-        <v>25</v>
-      </c>
-      <c r="P26" s="92"/>
-    </row>
-    <row r="27" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I26" s="11"/>
+      <c r="J26" s="164"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="117"/>
+    </row>
+    <row r="27" spans="1:16" ht="17" thickBot="1">
       <c r="A27" s="95"/>
       <c r="B27" s="96"/>
       <c r="C27" s="93" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="98"/>
+        <v>54</v>
+      </c>
+      <c r="E27" s="109"/>
       <c r="F27" s="22" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="H27" s="107">
         <v>0</v>
       </c>
-      <c r="I27" s="11"/>
-      <c r="J27" s="166"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="131"/>
+      <c r="K27" s="105"/>
+      <c r="L27" s="105"/>
+      <c r="M27" s="105"/>
+      <c r="N27" s="105"/>
+      <c r="O27" s="106"/>
       <c r="P27" s="117"/>
     </row>
-    <row r="28" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="17" thickBot="1">
       <c r="A28" s="95"/>
       <c r="B28" s="96"/>
       <c r="C28" s="93" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="109"/>
+        <v>2</v>
+      </c>
+      <c r="E28" s="98">
+        <v>0</v>
+      </c>
       <c r="F28" s="22" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="H28" s="107">
         <v>0</v>
       </c>
-      <c r="I28" s="105"/>
-      <c r="J28" s="131"/>
-      <c r="K28" s="105"/>
+      <c r="I28" s="106"/>
+      <c r="J28" s="161"/>
+      <c r="K28" s="106"/>
       <c r="L28" s="105"/>
       <c r="M28" s="105"/>
       <c r="N28" s="105"/>
       <c r="O28" s="106"/>
       <c r="P28" s="117"/>
-    </row>
-    <row r="29" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="95"/>
-      <c r="B29" s="96"/>
-      <c r="C29" s="93" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="98">
-        <v>0</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="H29" s="107">
-        <v>0</v>
-      </c>
-      <c r="I29" s="106"/>
-      <c r="J29" s="163"/>
-      <c r="K29" s="106"/>
-      <c r="L29" s="105"/>
-      <c r="M29" s="105"/>
-      <c r="N29" s="105"/>
-      <c r="O29" s="106"/>
-      <c r="P29" s="117"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4811,8 +4817,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:J15"/>
@@ -4821,23 +4827,23 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="53" customWidth="1"/>
-    <col min="2" max="2" width="6.5" style="53" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="53" customWidth="1"/>
-    <col min="4" max="4" width="32.83203125" style="53" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="53" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="53" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="53" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="53" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="53" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" style="53" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="53" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="53" customWidth="1"/>
     <col min="7" max="7" width="71" style="53" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="57" customWidth="1"/>
-    <col min="9" max="9" width="31.5" style="57" customWidth="1"/>
-    <col min="10" max="10" width="98.5" style="53" customWidth="1"/>
-    <col min="11" max="16384" width="33.1640625" style="53"/>
+    <col min="8" max="8" width="12.42578125" style="57" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" style="57" customWidth="1"/>
+    <col min="10" max="10" width="98.42578125" style="53" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" ht="17" thickBot="1"/>
+    <row r="2" spans="2:10">
       <c r="B2" s="54"/>
       <c r="C2" s="55"/>
       <c r="D2" s="55"/>
@@ -4848,7 +4854,7 @@
       <c r="I2" s="58"/>
       <c r="J2" s="55"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10">
       <c r="B3" s="56"/>
       <c r="C3" s="12" t="s">
         <v>14</v>
@@ -4861,7 +4867,7 @@
       <c r="I3" s="17"/>
       <c r="J3" s="52"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10">
       <c r="B4" s="56"/>
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
@@ -4872,7 +4878,7 @@
       <c r="I4" s="59"/>
       <c r="J4" s="52"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10">
       <c r="B5" s="60"/>
       <c r="C5" s="14" t="s">
         <v>15</v>
@@ -4887,7 +4893,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>17</v>
@@ -4899,126 +4905,126 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10">
       <c r="B6" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="G6" s="152"/>
+      <c r="H6" s="182"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="C7" s="165" t="s">
         <v>202</v>
       </c>
-      <c r="G6" s="154"/>
-      <c r="H6" s="184"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C7" s="167" t="s">
+      <c r="D7" s="165" t="s">
         <v>203</v>
       </c>
-      <c r="D7" s="167" t="s">
-        <v>204</v>
-      </c>
-      <c r="H7" s="184"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C8" s="167"/>
-      <c r="D8" s="167"/>
-      <c r="H8" s="184"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D9" s="167"/>
-      <c r="H9" s="184"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H10" s="184"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H7" s="182"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="C8" s="165"/>
+      <c r="D8" s="165"/>
+      <c r="H8" s="182"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="D9" s="165"/>
+      <c r="H9" s="182"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="H10" s="182"/>
+    </row>
+    <row r="11" spans="2:10">
       <c r="B11" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" s="182">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="C12" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="H11" s="184">
-        <v>42979</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C12" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="167" t="s">
-        <v>106</v>
+      <c r="D12" s="165" t="s">
+        <v>105</v>
       </c>
       <c r="F12" s="53">
         <v>2017</v>
       </c>
       <c r="G12" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="H12" s="184">
+        <v>104</v>
+      </c>
+      <c r="H12" s="182">
         <v>42979</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10">
       <c r="C13" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="167" t="s">
-        <v>108</v>
+        <v>100</v>
+      </c>
+      <c r="D13" s="165" t="s">
+        <v>107</v>
       </c>
       <c r="F13" s="53">
         <v>2017</v>
       </c>
       <c r="G13" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="H13" s="184">
+        <v>106</v>
+      </c>
+      <c r="H13" s="182">
         <v>42979</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C14" s="167" t="s">
+    <row r="14" spans="2:10">
+      <c r="C14" s="165" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="127" t="s">
         <v>154</v>
       </c>
-      <c r="D14" s="127" t="s">
+      <c r="E14" s="177" t="s">
         <v>155</v>
       </c>
-      <c r="E14" s="179" t="s">
+      <c r="F14" s="177">
+        <v>2015</v>
+      </c>
+      <c r="G14" s="177">
+        <v>2015</v>
+      </c>
+      <c r="H14" s="178">
+        <v>42339</v>
+      </c>
+      <c r="I14" s="179" t="s">
         <v>156</v>
       </c>
-      <c r="F14" s="179">
-        <v>2015</v>
-      </c>
-      <c r="G14" s="179">
-        <v>2015</v>
-      </c>
-      <c r="H14" s="180">
-        <v>42339</v>
-      </c>
-      <c r="I14" s="181" t="s">
+      <c r="J14" s="177" t="s">
         <v>157</v>
       </c>
-      <c r="J14" s="179" t="s">
+    </row>
+    <row r="15" spans="2:10">
+      <c r="C15" s="165" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="165" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="165" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C15" s="167" t="s">
-        <v>154</v>
-      </c>
-      <c r="D15" s="167" t="s">
-        <v>153</v>
-      </c>
-      <c r="E15" s="167" t="s">
+      <c r="F15" s="165">
+        <v>2013</v>
+      </c>
+      <c r="G15" s="165">
+        <v>2013</v>
+      </c>
+      <c r="H15" s="180">
+        <v>42373</v>
+      </c>
+      <c r="I15" s="181" t="s">
         <v>159</v>
       </c>
-      <c r="F15" s="167">
-        <v>2013</v>
-      </c>
-      <c r="G15" s="167">
-        <v>2013</v>
-      </c>
-      <c r="H15" s="182">
-        <v>42373</v>
-      </c>
-      <c r="I15" s="183" t="s">
+      <c r="J15" s="165" t="s">
         <v>160</v>
-      </c>
-      <c r="J15" s="167" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -5029,8 +5035,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:Q334"/>
@@ -5039,22 +5045,22 @@
       <selection activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="61" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="61" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="61" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="61" customWidth="1"/>
     <col min="4" max="4" width="19" style="61" customWidth="1"/>
     <col min="5" max="5" width="17" style="61" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" style="61" customWidth="1"/>
-    <col min="7" max="13" width="10.83203125" style="61"/>
-    <col min="14" max="14" width="15.6640625" style="61" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" style="61"/>
-    <col min="16" max="16" width="12.1640625" style="61" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="61"/>
+    <col min="6" max="6" width="6.140625" style="61" customWidth="1"/>
+    <col min="7" max="13" width="10.85546875" style="61"/>
+    <col min="14" max="14" width="15.7109375" style="61" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" style="61"/>
+    <col min="16" max="16" width="12.140625" style="61" customWidth="1"/>
+    <col min="17" max="16384" width="10.85546875" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="17" thickBot="1"/>
+    <row r="2" spans="1:14">
       <c r="B2" s="62"/>
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
@@ -5069,7 +5075,7 @@
       <c r="M2" s="63"/>
       <c r="N2" s="64"/>
     </row>
-    <row r="3" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="17" customHeight="1">
       <c r="A3" s="65"/>
       <c r="B3" s="90"/>
       <c r="C3" s="69" t="s">
@@ -5091,14 +5097,14 @@
       <c r="M3" s="66"/>
       <c r="N3" s="91"/>
     </row>
-    <row r="4" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="17" customHeight="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="155"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
+      <c r="B4" s="153"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
       <c r="H4" s="68"/>
       <c r="I4" s="68"/>
       <c r="J4" s="68"/>
@@ -5107,16 +5113,16 @@
       <c r="M4" s="68"/>
       <c r="N4" s="68"/>
     </row>
-    <row r="5" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="17" customHeight="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="155"/>
-      <c r="C5" s="156" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="156"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="156"/>
-      <c r="G5" s="156"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="154" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
       <c r="H5" s="68"/>
       <c r="I5" s="68"/>
       <c r="J5" s="68"/>
@@ -5125,16 +5131,16 @@
       <c r="M5" s="68"/>
       <c r="N5" s="68"/>
     </row>
-    <row r="6" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="17" customHeight="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="155"/>
+      <c r="B6" s="153"/>
       <c r="C6" s="68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="68"/>
       <c r="E6" s="68"/>
-      <c r="F6" s="156"/>
-      <c r="G6" s="156"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
       <c r="H6" s="68"/>
       <c r="I6" s="68"/>
       <c r="J6" s="68"/>
@@ -5143,20 +5149,20 @@
       <c r="M6" s="68"/>
       <c r="N6" s="68"/>
     </row>
-    <row r="7" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="17" customHeight="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="155"/>
+      <c r="B7" s="153"/>
       <c r="C7" s="68" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E7" s="68">
         <v>2.016</v>
       </c>
       <c r="F7" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="G7" s="156"/>
-      <c r="H7" s="156"/>
+        <v>87</v>
+      </c>
+      <c r="G7" s="154"/>
+      <c r="H7" s="154"/>
       <c r="I7" s="68"/>
       <c r="J7" s="68"/>
       <c r="K7" s="68"/>
@@ -5164,20 +5170,20 @@
       <c r="M7" s="68"/>
       <c r="N7" s="68"/>
     </row>
-    <row r="8" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="17" customHeight="1">
       <c r="A8" s="65"/>
-      <c r="B8" s="155"/>
+      <c r="B8" s="153"/>
       <c r="C8" s="68" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E8" s="68">
         <v>28</v>
       </c>
       <c r="F8" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" s="156"/>
-      <c r="H8" s="156"/>
+        <v>87</v>
+      </c>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
       <c r="I8" s="68"/>
       <c r="J8" s="68"/>
       <c r="K8" s="68"/>
@@ -5185,20 +5191,20 @@
       <c r="M8" s="68"/>
       <c r="N8" s="68"/>
     </row>
-    <row r="9" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="17" customHeight="1">
       <c r="A9" s="65"/>
-      <c r="B9" s="155"/>
+      <c r="B9" s="153"/>
       <c r="C9" s="68" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E9" s="68">
         <v>44</v>
       </c>
       <c r="F9" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="G9" s="156"/>
-      <c r="H9" s="156"/>
+        <v>87</v>
+      </c>
+      <c r="G9" s="154"/>
+      <c r="H9" s="154"/>
       <c r="I9" s="68"/>
       <c r="J9" s="68"/>
       <c r="K9" s="68"/>
@@ -5206,21 +5212,21 @@
       <c r="M9" s="68"/>
       <c r="N9" s="68"/>
     </row>
-    <row r="10" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="17" customHeight="1">
       <c r="A10" s="65"/>
-      <c r="B10" s="155"/>
+      <c r="B10" s="153"/>
       <c r="C10" s="68" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E10" s="68">
         <f>12*11+1.008*24</f>
         <v>156.19200000000001</v>
       </c>
       <c r="F10" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" s="156"/>
-      <c r="H10" s="156"/>
+        <v>87</v>
+      </c>
+      <c r="G10" s="154"/>
+      <c r="H10" s="154"/>
       <c r="I10" s="68"/>
       <c r="J10" s="68"/>
       <c r="K10" s="68"/>
@@ -5228,20 +5234,20 @@
       <c r="M10" s="68"/>
       <c r="N10" s="68"/>
     </row>
-    <row r="11" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="17" customHeight="1">
       <c r="A11" s="65"/>
-      <c r="B11" s="155"/>
+      <c r="B11" s="153"/>
       <c r="C11" s="68" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="68">
         <v>32</v>
       </c>
       <c r="F11" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" s="156"/>
-      <c r="H11" s="156"/>
+        <v>87</v>
+      </c>
+      <c r="G11" s="154"/>
+      <c r="H11" s="154"/>
       <c r="I11" s="68"/>
       <c r="J11" s="68"/>
       <c r="K11" s="68"/>
@@ -5249,20 +5255,20 @@
       <c r="M11" s="68"/>
       <c r="N11" s="68"/>
     </row>
-    <row r="12" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="17" customHeight="1">
       <c r="A12" s="65"/>
-      <c r="B12" s="155"/>
+      <c r="B12" s="153"/>
       <c r="C12" s="68" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E12" s="68">
         <v>32.031999999999996</v>
       </c>
       <c r="F12" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="G12" s="156"/>
-      <c r="H12" s="156"/>
+        <v>87</v>
+      </c>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
       <c r="I12" s="68"/>
       <c r="J12" s="68"/>
       <c r="K12" s="68"/>
@@ -5270,24 +5276,24 @@
       <c r="M12" s="68"/>
       <c r="N12" s="68"/>
     </row>
-    <row r="13" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="17" customHeight="1">
       <c r="A13" s="65"/>
-      <c r="B13" s="155"/>
+      <c r="B13" s="153"/>
       <c r="C13" s="68" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E13" s="68">
         <f>2*12+6*1.008+16</f>
         <v>46.048000000000002</v>
       </c>
       <c r="F13" s="68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G13" s="68">
         <v>0.78900000000000003</v>
       </c>
       <c r="H13" s="68" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I13" s="68"/>
       <c r="J13" s="68"/>
@@ -5296,9 +5302,9 @@
       <c r="M13" s="68"/>
       <c r="N13" s="68"/>
     </row>
-    <row r="14" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="17" customHeight="1">
       <c r="A14" s="65"/>
-      <c r="B14" s="155"/>
+      <c r="B14" s="153"/>
       <c r="C14" s="68"/>
       <c r="E14" s="68"/>
       <c r="F14" s="68"/>
@@ -5311,17 +5317,17 @@
       <c r="M14" s="68"/>
       <c r="N14" s="68"/>
     </row>
-    <row r="15" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="17" customHeight="1">
       <c r="A15" s="65"/>
-      <c r="B15" s="155"/>
+      <c r="B15" s="153"/>
       <c r="C15" s="68" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E15" s="61">
         <v>0.747</v>
       </c>
       <c r="F15" s="68" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G15" s="68"/>
       <c r="H15" s="68"/>
@@ -5332,11 +5338,11 @@
       <c r="M15" s="68"/>
       <c r="N15" s="68"/>
     </row>
-    <row r="16" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="17" customHeight="1">
       <c r="A16" s="65"/>
-      <c r="B16" s="155"/>
+      <c r="B16" s="153"/>
       <c r="C16" s="68" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E16" s="61">
         <v>0.05</v>
@@ -5351,14 +5357,14 @@
       <c r="M16" s="68"/>
       <c r="N16" s="68"/>
     </row>
-    <row r="17" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="17" customHeight="1">
       <c r="A17" s="65"/>
-      <c r="B17" s="155"/>
+      <c r="B17" s="153"/>
       <c r="C17" s="68"/>
       <c r="D17" s="68"/>
       <c r="E17" s="68"/>
-      <c r="F17" s="156"/>
-      <c r="G17" s="156"/>
+      <c r="F17" s="154"/>
+      <c r="G17" s="154"/>
       <c r="H17" s="68"/>
       <c r="I17" s="68"/>
       <c r="J17" s="68"/>
@@ -5367,19 +5373,19 @@
       <c r="M17" s="68"/>
       <c r="N17" s="68"/>
     </row>
-    <row r="18" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="17" customHeight="1">
       <c r="A18" s="65"/>
-      <c r="B18" s="155"/>
+      <c r="B18" s="153"/>
       <c r="C18" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="156"/>
+      <c r="D18" s="154"/>
       <c r="E18" s="68">
         <v>25</v>
       </c>
-      <c r="F18" s="156"/>
+      <c r="F18" s="154"/>
       <c r="G18" s="68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H18" s="68"/>
       <c r="I18" s="68"/>
@@ -5389,19 +5395,19 @@
       <c r="M18" s="68"/>
       <c r="N18" s="68"/>
     </row>
-    <row r="19" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="17" customHeight="1">
       <c r="A19" s="65"/>
-      <c r="B19" s="155"/>
+      <c r="B19" s="153"/>
       <c r="C19" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="156"/>
+      <c r="D19" s="154"/>
       <c r="E19" s="68">
         <v>8000</v>
       </c>
-      <c r="F19" s="156"/>
+      <c r="F19" s="154"/>
       <c r="G19" s="68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H19" s="68"/>
       <c r="I19" s="68"/>
@@ -5411,19 +5417,19 @@
       <c r="M19" s="68"/>
       <c r="N19" s="68"/>
     </row>
-    <row r="20" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="17" customHeight="1">
       <c r="A20" s="65"/>
-      <c r="B20" s="155"/>
+      <c r="B20" s="153"/>
       <c r="C20" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="156"/>
+        <v>80</v>
+      </c>
+      <c r="D20" s="154"/>
       <c r="E20" s="68">
         <v>10.01</v>
       </c>
-      <c r="F20" s="156"/>
+      <c r="F20" s="154"/>
       <c r="G20" s="68" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H20" s="68"/>
       <c r="I20" s="68"/>
@@ -5433,8 +5439,8 @@
       <c r="M20" s="68"/>
       <c r="N20" s="68"/>
     </row>
-    <row r="21" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="17" thickBot="1"/>
+    <row r="22" spans="1:14">
       <c r="B22" s="62"/>
       <c r="C22" s="63"/>
       <c r="D22" s="63"/>
@@ -5449,7 +5455,7 @@
       <c r="M22" s="63"/>
       <c r="N22" s="64"/>
     </row>
-    <row r="23" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="17" customHeight="1">
       <c r="A23" s="65"/>
       <c r="B23" s="90"/>
       <c r="C23" s="69" t="s">
@@ -5471,16 +5477,16 @@
       <c r="M23" s="66"/>
       <c r="N23" s="91"/>
     </row>
-    <row r="24" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="17" customHeight="1">
       <c r="A24" s="65"/>
-      <c r="B24" s="155"/>
-      <c r="C24" s="156" t="s">
-        <v>147</v>
-      </c>
-      <c r="D24" s="156"/>
-      <c r="E24" s="156"/>
-      <c r="F24" s="156"/>
-      <c r="G24" s="156"/>
+      <c r="B24" s="153"/>
+      <c r="C24" s="154" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="154"/>
+      <c r="E24" s="154"/>
+      <c r="F24" s="154"/>
+      <c r="G24" s="154"/>
       <c r="H24" s="68"/>
       <c r="I24" s="68"/>
       <c r="J24" s="68"/>
@@ -5489,13 +5495,13 @@
       <c r="M24" s="68"/>
       <c r="N24" s="68"/>
     </row>
-    <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="18" customHeight="1">
       <c r="A25" s="65"/>
-      <c r="B25" s="155"/>
+      <c r="B25" s="153"/>
       <c r="C25" s="68"/>
-      <c r="D25" s="156"/>
+      <c r="D25" s="154"/>
       <c r="E25" s="68"/>
-      <c r="F25" s="156"/>
+      <c r="F25" s="154"/>
       <c r="G25" s="68"/>
       <c r="H25" s="68"/>
       <c r="I25" s="68"/>
@@ -5505,57 +5511,57 @@
       <c r="M25" s="68"/>
       <c r="N25" s="68"/>
     </row>
-    <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="18" customHeight="1">
       <c r="A26" s="65"/>
       <c r="B26" s="65"/>
-      <c r="C26" s="176" t="s">
-        <v>90</v>
+      <c r="C26" s="174" t="s">
+        <v>89</v>
       </c>
       <c r="H26" s="68"/>
-      <c r="I26" s="177" t="s">
-        <v>90</v>
-      </c>
-      <c r="J26" s="158" t="s">
-        <v>146</v>
-      </c>
-      <c r="K26" s="178" t="s">
+      <c r="I26" s="175" t="s">
         <v>89</v>
       </c>
+      <c r="J26" s="156" t="s">
+        <v>145</v>
+      </c>
+      <c r="K26" s="176" t="s">
+        <v>88</v>
+      </c>
       <c r="L26" s="68"/>
-      <c r="M26" s="156"/>
+      <c r="M26" s="154"/>
       <c r="N26" s="68"/>
     </row>
-    <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="18" customHeight="1">
       <c r="A27" s="65"/>
-      <c r="B27" s="190" t="s">
-        <v>131</v>
-      </c>
-      <c r="C27" s="169"/>
-      <c r="D27" s="169"/>
-      <c r="E27" s="169"/>
-      <c r="F27" s="169"/>
-      <c r="G27" s="169"/>
-      <c r="H27" s="170"/>
-      <c r="I27" s="190" t="s">
-        <v>184</v>
-      </c>
-      <c r="J27" s="169"/>
-      <c r="K27" s="173"/>
-      <c r="L27" s="169"/>
-      <c r="M27" s="173"/>
-      <c r="N27" s="170"/>
-    </row>
-    <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="188" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="167"/>
+      <c r="D27" s="167"/>
+      <c r="E27" s="167"/>
+      <c r="F27" s="167"/>
+      <c r="G27" s="167"/>
+      <c r="H27" s="168"/>
+      <c r="I27" s="188" t="s">
+        <v>183</v>
+      </c>
+      <c r="J27" s="167"/>
+      <c r="K27" s="171"/>
+      <c r="L27" s="167"/>
+      <c r="M27" s="171"/>
+      <c r="N27" s="168"/>
+    </row>
+    <row r="28" spans="1:14" ht="18" customHeight="1">
       <c r="A28" s="65"/>
-      <c r="B28" s="160"/>
+      <c r="B28" s="158"/>
       <c r="C28" s="68"/>
       <c r="D28" s="68"/>
       <c r="E28" s="68"/>
       <c r="F28" s="68"/>
       <c r="G28" s="68"/>
-      <c r="H28" s="168"/>
-      <c r="I28" s="160" t="s">
-        <v>201</v>
+      <c r="H28" s="166"/>
+      <c r="I28" s="158" t="s">
+        <v>200</v>
       </c>
       <c r="J28" s="68"/>
       <c r="K28" s="68">
@@ -5563,55 +5569,55 @@
       </c>
       <c r="L28" s="68"/>
       <c r="M28" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="N28" s="168"/>
-    </row>
-    <row r="29" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="N28" s="166"/>
+    </row>
+    <row r="29" spans="1:14" ht="18" customHeight="1">
       <c r="A29" s="65"/>
-      <c r="B29" s="160"/>
+      <c r="B29" s="158"/>
       <c r="C29" s="68" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D29" s="68">
         <v>1</v>
       </c>
       <c r="E29" s="68" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F29" s="68"/>
       <c r="G29" s="68"/>
-      <c r="H29" s="168"/>
-      <c r="I29" s="160" t="s">
-        <v>100</v>
+      <c r="H29" s="166"/>
+      <c r="I29" s="158" t="s">
+        <v>99</v>
       </c>
       <c r="J29" s="68"/>
-      <c r="K29" s="192">
+      <c r="K29" s="190">
         <v>0.7</v>
       </c>
       <c r="L29" s="68"/>
       <c r="M29" s="68"/>
-      <c r="N29" s="168" t="s">
+      <c r="N29" s="166" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="18" customHeight="1">
+      <c r="A30" s="65"/>
+      <c r="B30" s="158"/>
+      <c r="C30" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="190">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="E30" s="68"/>
+      <c r="F30" s="172" t="s">
+        <v>134</v>
+      </c>
+      <c r="G30" s="68"/>
+      <c r="H30" s="166"/>
+      <c r="I30" s="158" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="65"/>
-      <c r="B30" s="160"/>
-      <c r="C30" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="D30" s="192">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="E30" s="68"/>
-      <c r="F30" s="174" t="s">
-        <v>135</v>
-      </c>
-      <c r="G30" s="68"/>
-      <c r="H30" s="168"/>
-      <c r="I30" s="160" t="s">
-        <v>115</v>
       </c>
       <c r="J30" s="68"/>
       <c r="K30" s="68">
@@ -5619,79 +5625,79 @@
       </c>
       <c r="L30" s="68"/>
       <c r="M30" s="68"/>
-      <c r="N30" s="168"/>
-    </row>
-    <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N30" s="166"/>
+    </row>
+    <row r="31" spans="1:14" ht="18" customHeight="1">
       <c r="A31" s="65"/>
-      <c r="B31" s="160"/>
+      <c r="B31" s="158"/>
       <c r="C31" s="68" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D31" s="68"/>
       <c r="E31" s="68" t="s">
-        <v>137</v>
-      </c>
-      <c r="F31" s="174"/>
+        <v>136</v>
+      </c>
+      <c r="F31" s="172"/>
       <c r="G31" s="68"/>
-      <c r="H31" s="168"/>
-      <c r="I31" s="160" t="s">
-        <v>116</v>
+      <c r="H31" s="166"/>
+      <c r="I31" s="158" t="s">
+        <v>115</v>
       </c>
       <c r="J31" s="68"/>
-      <c r="K31" s="194">
+      <c r="K31" s="192">
         <f>D97</f>
         <v>5760.4928763958414</v>
       </c>
       <c r="L31" s="68"/>
       <c r="M31" s="68" t="s">
-        <v>117</v>
-      </c>
-      <c r="N31" s="168"/>
-    </row>
-    <row r="32" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+      <c r="N31" s="166"/>
+    </row>
+    <row r="32" spans="1:14" ht="18" customHeight="1">
       <c r="A32" s="65"/>
-      <c r="B32" s="160"/>
+      <c r="B32" s="158"/>
       <c r="C32" s="68"/>
       <c r="D32" s="68"/>
       <c r="E32" s="68"/>
-      <c r="F32" s="174" t="s">
-        <v>138</v>
+      <c r="F32" s="172" t="s">
+        <v>137</v>
       </c>
       <c r="G32" s="68"/>
-      <c r="H32" s="168"/>
-      <c r="I32" s="160" t="s">
-        <v>118</v>
+      <c r="H32" s="166"/>
+      <c r="I32" s="158" t="s">
+        <v>117</v>
       </c>
       <c r="J32" s="68"/>
-      <c r="K32" s="192">
+      <c r="K32" s="190">
         <v>80000</v>
       </c>
       <c r="L32" s="68"/>
       <c r="M32" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="N32" s="168"/>
-    </row>
-    <row r="33" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+      <c r="N32" s="166"/>
+    </row>
+    <row r="33" spans="1:17" ht="18" customHeight="1">
       <c r="A33" s="65"/>
-      <c r="B33" s="160"/>
+      <c r="B33" s="158"/>
       <c r="C33" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="D33" s="193">
+        <v>115</v>
+      </c>
+      <c r="D33" s="191">
         <f>55+45</f>
         <v>100</v>
       </c>
       <c r="E33" s="68" t="s">
-        <v>117</v>
-      </c>
-      <c r="F33" s="174" t="s">
-        <v>139</v>
+        <v>116</v>
+      </c>
+      <c r="F33" s="172" t="s">
+        <v>138</v>
       </c>
       <c r="G33" s="68"/>
-      <c r="H33" s="168"/>
-      <c r="I33" s="160" t="s">
-        <v>120</v>
+      <c r="H33" s="166"/>
+      <c r="I33" s="158" t="s">
+        <v>119</v>
       </c>
       <c r="J33" s="68"/>
       <c r="K33" s="68">
@@ -5700,28 +5706,28 @@
       </c>
       <c r="L33" s="68"/>
       <c r="M33" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="N33" s="166"/>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="B34" s="158"/>
+      <c r="C34" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="D34" s="190">
+        <v>3.2</v>
+      </c>
+      <c r="E34" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="F34" s="172" t="s">
+        <v>141</v>
+      </c>
+      <c r="G34" s="68"/>
+      <c r="H34" s="166"/>
+      <c r="I34" s="158" t="s">
         <v>121</v>
-      </c>
-      <c r="N33" s="168"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B34" s="160"/>
-      <c r="C34" s="68" t="s">
-        <v>140</v>
-      </c>
-      <c r="D34" s="192">
-        <v>3.2</v>
-      </c>
-      <c r="E34" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="F34" s="174" t="s">
-        <v>142</v>
-      </c>
-      <c r="G34" s="68"/>
-      <c r="H34" s="168"/>
-      <c r="I34" s="160" t="s">
-        <v>122</v>
       </c>
       <c r="J34" s="68"/>
       <c r="K34" s="68">
@@ -5729,20 +5735,20 @@
       </c>
       <c r="L34" s="68"/>
       <c r="M34" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="N34" s="168"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B35" s="160"/>
+        <v>120</v>
+      </c>
+      <c r="N34" s="166"/>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="B35" s="158"/>
       <c r="C35" s="68"/>
       <c r="D35" s="68"/>
       <c r="E35" s="68"/>
-      <c r="F35" s="174"/>
+      <c r="F35" s="172"/>
       <c r="G35" s="68"/>
-      <c r="H35" s="168"/>
-      <c r="I35" s="160" t="s">
-        <v>150</v>
+      <c r="H35" s="166"/>
+      <c r="I35" s="158" t="s">
+        <v>149</v>
       </c>
       <c r="J35" s="68"/>
       <c r="K35" s="68">
@@ -5750,19 +5756,19 @@
       </c>
       <c r="L35" s="68"/>
       <c r="M35" s="68"/>
-      <c r="N35" s="168"/>
-    </row>
-    <row r="36" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N35" s="166"/>
+    </row>
+    <row r="36" spans="1:17" ht="18" customHeight="1">
       <c r="A36" s="65"/>
-      <c r="B36" s="160"/>
+      <c r="B36" s="158"/>
       <c r="C36" s="68"/>
       <c r="D36" s="68"/>
       <c r="E36" s="68"/>
-      <c r="F36" s="174"/>
+      <c r="F36" s="172"/>
       <c r="G36" s="68"/>
-      <c r="H36" s="168"/>
-      <c r="I36" s="160" t="s">
-        <v>149</v>
+      <c r="H36" s="166"/>
+      <c r="I36" s="158" t="s">
+        <v>148</v>
       </c>
       <c r="J36" s="68"/>
       <c r="K36" s="68">
@@ -5771,21 +5777,21 @@
       </c>
       <c r="L36" s="68"/>
       <c r="M36" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="N36" s="168"/>
-    </row>
-    <row r="37" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="N36" s="166"/>
+    </row>
+    <row r="37" spans="1:17" ht="18" customHeight="1">
       <c r="A37" s="65"/>
-      <c r="B37" s="160"/>
+      <c r="B37" s="158"/>
       <c r="C37" s="68"/>
       <c r="D37" s="68"/>
       <c r="E37" s="68"/>
-      <c r="F37" s="174"/>
+      <c r="F37" s="172"/>
       <c r="G37" s="68"/>
-      <c r="H37" s="168"/>
-      <c r="I37" s="160" t="s">
-        <v>120</v>
+      <c r="H37" s="166"/>
+      <c r="I37" s="158" t="s">
+        <v>119</v>
       </c>
       <c r="J37" s="68"/>
       <c r="K37" s="68">
@@ -5794,236 +5800,236 @@
       </c>
       <c r="L37" s="68"/>
       <c r="M37" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="N37" s="168"/>
+        <v>120</v>
+      </c>
+      <c r="N37" s="166"/>
       <c r="O37" s="61">
         <v>930</v>
       </c>
       <c r="P37" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q37" s="61" t="s">
         <v>151</v>
       </c>
-      <c r="Q37" s="61" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B38" s="160"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="B38" s="158"/>
       <c r="C38" s="68" t="s">
-        <v>109</v>
-      </c>
-      <c r="D38" s="156">
+        <v>108</v>
+      </c>
+      <c r="D38" s="154">
         <v>80</v>
       </c>
       <c r="E38" s="68" t="s">
-        <v>143</v>
-      </c>
-      <c r="F38" s="175" t="s">
-        <v>103</v>
+        <v>142</v>
+      </c>
+      <c r="F38" s="173" t="s">
+        <v>102</v>
       </c>
       <c r="G38" s="68"/>
-      <c r="H38" s="168"/>
-      <c r="I38" s="160" t="s">
-        <v>109</v>
+      <c r="H38" s="166"/>
+      <c r="I38" s="158" t="s">
+        <v>108</v>
       </c>
       <c r="J38" s="68"/>
-      <c r="K38" s="195">
+      <c r="K38" s="193">
         <f>(O37+O38)/2</f>
         <v>1000</v>
       </c>
       <c r="L38" s="68"/>
       <c r="M38" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="N38" s="168"/>
+        <v>122</v>
+      </c>
+      <c r="N38" s="166"/>
       <c r="O38" s="61">
         <v>1070</v>
       </c>
       <c r="P38" s="61" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q38" s="61" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="18" customHeight="1">
       <c r="A39" s="65"/>
-      <c r="B39" s="160"/>
+      <c r="B39" s="158"/>
       <c r="C39" s="68" t="s">
-        <v>109</v>
-      </c>
-      <c r="D39" s="192">
+        <v>108</v>
+      </c>
+      <c r="D39" s="190">
         <f>D38*D29</f>
         <v>80</v>
       </c>
       <c r="E39" s="68" t="s">
-        <v>97</v>
-      </c>
-      <c r="F39" s="174"/>
+        <v>96</v>
+      </c>
+      <c r="F39" s="172"/>
       <c r="G39" s="68"/>
-      <c r="H39" s="168"/>
-      <c r="I39" s="160" t="s">
-        <v>124</v>
+      <c r="H39" s="166"/>
+      <c r="I39" s="158" t="s">
+        <v>123</v>
       </c>
       <c r="J39" s="68"/>
-      <c r="K39" s="187">
+      <c r="K39" s="185">
         <f>D29*(E8/E9)*K30</f>
         <v>0.6172727272727272</v>
       </c>
       <c r="L39" s="68"/>
       <c r="M39" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="N39" s="168"/>
-    </row>
-    <row r="40" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="N39" s="166"/>
+    </row>
+    <row r="40" spans="1:17" ht="18" customHeight="1">
       <c r="A40" s="65"/>
-      <c r="B40" s="160"/>
+      <c r="B40" s="158"/>
       <c r="C40" s="68" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D40" s="68">
         <f>E16</f>
         <v>0.05</v>
       </c>
       <c r="E40" s="68"/>
-      <c r="F40" s="174"/>
+      <c r="F40" s="172"/>
       <c r="G40" s="68"/>
-      <c r="H40" s="168"/>
-      <c r="I40" s="160" t="s">
-        <v>116</v>
+      <c r="H40" s="166"/>
+      <c r="I40" s="158" t="s">
+        <v>115</v>
       </c>
       <c r="J40" s="68"/>
-      <c r="K40" s="187">
+      <c r="K40" s="185">
         <f>K39*D96</f>
         <v>2262.7787307032586</v>
       </c>
       <c r="L40" s="68"/>
       <c r="M40" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="N40" s="168"/>
-    </row>
-    <row r="41" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="N40" s="166"/>
+    </row>
+    <row r="41" spans="1:17" ht="18" customHeight="1">
       <c r="A41" s="65"/>
-      <c r="B41" s="160"/>
+      <c r="B41" s="158"/>
       <c r="C41" s="68"/>
       <c r="D41" s="68"/>
       <c r="E41" s="68"/>
-      <c r="F41" s="174"/>
+      <c r="F41" s="172"/>
       <c r="G41" s="68"/>
-      <c r="H41" s="168"/>
-      <c r="I41" s="160" t="s">
-        <v>127</v>
+      <c r="H41" s="166"/>
+      <c r="I41" s="158" t="s">
+        <v>126</v>
       </c>
       <c r="J41" s="68"/>
-      <c r="K41" s="192">
+      <c r="K41" s="190">
         <v>8000</v>
       </c>
       <c r="L41" s="68"/>
       <c r="M41" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="N41" s="168"/>
+        <v>118</v>
+      </c>
+      <c r="N41" s="166"/>
       <c r="O41" s="127"/>
     </row>
-    <row r="42" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" ht="18" customHeight="1">
       <c r="A42" s="65"/>
-      <c r="B42" s="160"/>
+      <c r="B42" s="158"/>
       <c r="C42" s="68" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="68">
         <v>8000</v>
       </c>
       <c r="E42" s="68"/>
-      <c r="F42" s="174"/>
+      <c r="F42" s="172"/>
       <c r="G42" s="68"/>
-      <c r="H42" s="168"/>
-      <c r="I42" s="160" t="s">
-        <v>128</v>
+      <c r="H42" s="166"/>
+      <c r="I42" s="158" t="s">
+        <v>127</v>
       </c>
       <c r="J42" s="68"/>
-      <c r="K42" s="192">
+      <c r="K42" s="190">
         <v>1</v>
       </c>
       <c r="L42" s="68"/>
       <c r="M42" s="68"/>
-      <c r="N42" s="168"/>
-    </row>
-    <row r="43" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N42" s="166"/>
+    </row>
+    <row r="43" spans="1:17" ht="18" customHeight="1">
       <c r="A43" s="65"/>
-      <c r="B43" s="160"/>
+      <c r="B43" s="158"/>
       <c r="C43" s="68" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D43" s="68">
         <v>5</v>
       </c>
       <c r="E43" s="68" t="s">
-        <v>144</v>
-      </c>
-      <c r="F43" s="174" t="s">
-        <v>104</v>
+        <v>143</v>
+      </c>
+      <c r="F43" s="172" t="s">
+        <v>103</v>
       </c>
       <c r="G43" s="68"/>
-      <c r="H43" s="168"/>
-      <c r="I43" s="160" t="s">
-        <v>129</v>
+      <c r="H43" s="166"/>
+      <c r="I43" s="158" t="s">
+        <v>128</v>
       </c>
       <c r="J43" s="68"/>
-      <c r="K43" s="187">
+      <c r="K43" s="185">
         <f>K40/K41*1000*K42</f>
         <v>282.84734133790732</v>
       </c>
       <c r="L43" s="68"/>
       <c r="M43" s="68" t="s">
-        <v>96</v>
-      </c>
-      <c r="N43" s="168"/>
-    </row>
-    <row r="44" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="N43" s="166"/>
+    </row>
+    <row r="44" spans="1:17" ht="18" customHeight="1">
       <c r="A44" s="65"/>
-      <c r="B44" s="160"/>
+      <c r="B44" s="158"/>
       <c r="C44" s="68" t="s">
-        <v>118</v>
-      </c>
-      <c r="D44" s="192">
+        <v>117</v>
+      </c>
+      <c r="D44" s="190">
         <v>20</v>
       </c>
       <c r="E44" s="68" t="s">
-        <v>145</v>
-      </c>
-      <c r="F44" s="174" t="s">
-        <v>104</v>
+        <v>144</v>
+      </c>
+      <c r="F44" s="172" t="s">
+        <v>103</v>
       </c>
       <c r="G44" s="68"/>
-      <c r="H44" s="168"/>
-      <c r="I44" s="160" t="s">
-        <v>109</v>
+      <c r="H44" s="166"/>
+      <c r="I44" s="158" t="s">
+        <v>108</v>
       </c>
       <c r="J44" s="68"/>
-      <c r="K44" s="187">
+      <c r="K44" s="185">
         <f>K36*K43/1000</f>
         <v>367.70154373927949</v>
       </c>
       <c r="L44" s="68"/>
       <c r="M44" s="68" t="s">
-        <v>97</v>
-      </c>
-      <c r="N44" s="168"/>
-    </row>
-    <row r="45" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="N44" s="166"/>
+    </row>
+    <row r="45" spans="1:17" ht="18" customHeight="1">
       <c r="A45" s="65"/>
-      <c r="B45" s="160"/>
+      <c r="B45" s="158"/>
       <c r="C45" s="68"/>
       <c r="D45" s="68"/>
       <c r="E45" s="68"/>
       <c r="F45" s="68"/>
       <c r="G45" s="68"/>
-      <c r="H45" s="168"/>
-      <c r="I45" s="160" t="s">
-        <v>130</v>
+      <c r="H45" s="166"/>
+      <c r="I45" s="158" t="s">
+        <v>129</v>
       </c>
       <c r="J45" s="68"/>
       <c r="K45" s="68">
@@ -6032,57 +6038,57 @@
       </c>
       <c r="L45" s="68"/>
       <c r="M45" s="68"/>
-      <c r="N45" s="168"/>
-    </row>
-    <row r="46" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N45" s="166"/>
+    </row>
+    <row r="46" spans="1:17" ht="18" customHeight="1">
       <c r="A46" s="65"/>
-      <c r="B46" s="160"/>
+      <c r="B46" s="158"/>
       <c r="C46" s="68"/>
       <c r="D46" s="68"/>
       <c r="E46" s="68"/>
       <c r="F46" s="68"/>
       <c r="G46" s="68"/>
-      <c r="H46" s="168"/>
-      <c r="I46" s="160"/>
+      <c r="H46" s="166"/>
+      <c r="I46" s="158"/>
       <c r="J46" s="68"/>
       <c r="K46" s="68"/>
       <c r="L46" s="68"/>
       <c r="M46" s="68"/>
-      <c r="N46" s="168"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B47" s="171"/>
+      <c r="N46" s="166"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="B47" s="169"/>
       <c r="C47" s="66"/>
       <c r="D47" s="66"/>
       <c r="E47" s="66"/>
       <c r="F47" s="66"/>
       <c r="G47" s="66"/>
-      <c r="H47" s="172"/>
-      <c r="I47" s="171" t="s">
-        <v>110</v>
+      <c r="H47" s="170"/>
+      <c r="I47" s="169" t="s">
+        <v>109</v>
       </c>
       <c r="J47" s="66"/>
-      <c r="K47" s="192">
+      <c r="K47" s="190">
         <v>3</v>
       </c>
       <c r="L47" s="66"/>
       <c r="M47" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="N47" s="172"/>
-    </row>
-    <row r="48" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="B48" s="190" t="s">
+      <c r="N47" s="170"/>
+    </row>
+    <row r="48" spans="1:17" ht="19">
+      <c r="B48" s="188" t="s">
+        <v>190</v>
+      </c>
+      <c r="C48" s="189"/>
+      <c r="D48" s="189" t="s">
         <v>191</v>
       </c>
-      <c r="C48" s="191"/>
-      <c r="D48" s="191" t="s">
-        <v>192</v>
-      </c>
-      <c r="E48" s="169"/>
-      <c r="F48" s="169"/>
-      <c r="G48" s="169"/>
-      <c r="H48" s="170"/>
+      <c r="E48" s="167"/>
+      <c r="F48" s="167"/>
+      <c r="G48" s="167"/>
+      <c r="H48" s="168"/>
       <c r="I48" s="68"/>
       <c r="J48" s="68"/>
       <c r="K48" s="68"/>
@@ -6090,14 +6096,14 @@
       <c r="M48" s="68"/>
       <c r="N48" s="68"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B49" s="160"/>
+    <row r="49" spans="2:14">
+      <c r="B49" s="158"/>
       <c r="C49" s="68"/>
       <c r="D49" s="68"/>
       <c r="E49" s="68"/>
       <c r="F49" s="68"/>
       <c r="G49" s="68"/>
-      <c r="H49" s="168"/>
+      <c r="H49" s="166"/>
       <c r="I49" s="68"/>
       <c r="J49" s="68"/>
       <c r="K49" s="68"/>
@@ -6105,23 +6111,23 @@
       <c r="M49" s="68"/>
       <c r="N49" s="68"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B50" s="160" t="s">
-        <v>109</v>
+    <row r="50" spans="2:14">
+      <c r="B50" s="158" t="s">
+        <v>108</v>
       </c>
       <c r="C50" s="68"/>
-      <c r="D50" s="194">
+      <c r="D50" s="192">
         <f>620/1.18</f>
         <v>525.42372881355936</v>
       </c>
       <c r="E50" s="68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F50" s="68"/>
       <c r="G50" s="68" t="s">
-        <v>192</v>
-      </c>
-      <c r="H50" s="168"/>
+        <v>191</v>
+      </c>
+      <c r="H50" s="166"/>
       <c r="I50" s="68"/>
       <c r="J50" s="68"/>
       <c r="K50" s="68"/>
@@ -6129,22 +6135,22 @@
       <c r="M50" s="68"/>
       <c r="N50" s="68"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B51" s="160" t="s">
-        <v>118</v>
+    <row r="51" spans="2:14">
+      <c r="B51" s="158" t="s">
+        <v>117</v>
       </c>
       <c r="C51" s="68"/>
-      <c r="D51" s="196">
+      <c r="D51" s="194">
         <v>25</v>
       </c>
       <c r="E51" s="68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F51" s="68"/>
       <c r="G51" s="68" t="s">
-        <v>192</v>
-      </c>
-      <c r="H51" s="168"/>
+        <v>191</v>
+      </c>
+      <c r="H51" s="166"/>
       <c r="I51" s="68"/>
       <c r="J51" s="68"/>
       <c r="K51" s="68"/>
@@ -6152,20 +6158,20 @@
       <c r="M51" s="68"/>
       <c r="N51" s="68"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B52" s="160" t="s">
-        <v>193</v>
+    <row r="52" spans="2:14">
+      <c r="B52" s="158" t="s">
+        <v>192</v>
       </c>
       <c r="C52" s="68"/>
-      <c r="D52" s="156">
+      <c r="D52" s="154">
         <v>1600</v>
       </c>
       <c r="E52" s="68" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F52" s="68"/>
       <c r="G52" s="68"/>
-      <c r="H52" s="168"/>
+      <c r="H52" s="166"/>
       <c r="I52" s="68"/>
       <c r="J52" s="68"/>
       <c r="K52" s="68"/>
@@ -6173,23 +6179,23 @@
       <c r="M52" s="68"/>
       <c r="N52" s="68"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B53" s="160" t="s">
-        <v>116</v>
+    <row r="53" spans="2:14">
+      <c r="B53" s="158" t="s">
+        <v>115</v>
       </c>
       <c r="C53" s="68"/>
-      <c r="D53" s="196">
+      <c r="D53" s="194">
         <f>500-50</f>
         <v>450</v>
       </c>
       <c r="E53" s="68" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F53" s="68"/>
       <c r="G53" s="68" t="s">
-        <v>192</v>
-      </c>
-      <c r="H53" s="168"/>
+        <v>191</v>
+      </c>
+      <c r="H53" s="166"/>
       <c r="I53" s="68"/>
       <c r="J53" s="68"/>
       <c r="K53" s="68"/>
@@ -6197,16 +6203,16 @@
       <c r="M53" s="68"/>
       <c r="N53" s="68"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B54" s="160"/>
+    <row r="54" spans="2:14">
+      <c r="B54" s="158"/>
       <c r="C54" s="68"/>
       <c r="D54" s="68"/>
       <c r="E54" s="68"/>
       <c r="F54" s="68"/>
       <c r="G54" s="68" t="s">
-        <v>194</v>
-      </c>
-      <c r="H54" s="168"/>
+        <v>193</v>
+      </c>
+      <c r="H54" s="166"/>
       <c r="I54" s="68"/>
       <c r="J54" s="68"/>
       <c r="K54" s="68"/>
@@ -6214,14 +6220,14 @@
       <c r="M54" s="68"/>
       <c r="N54" s="68"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B55" s="160"/>
+    <row r="55" spans="2:14">
+      <c r="B55" s="158"/>
       <c r="C55" s="68"/>
       <c r="D55" s="68"/>
       <c r="E55" s="68"/>
       <c r="F55" s="68"/>
       <c r="G55" s="68"/>
-      <c r="H55" s="168"/>
+      <c r="H55" s="166"/>
       <c r="I55" s="68"/>
       <c r="J55" s="68"/>
       <c r="K55" s="68"/>
@@ -6229,14 +6235,14 @@
       <c r="M55" s="68"/>
       <c r="N55" s="68"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B56" s="160"/>
+    <row r="56" spans="2:14">
+      <c r="B56" s="158"/>
       <c r="C56" s="68"/>
       <c r="D56" s="68"/>
       <c r="E56" s="68"/>
       <c r="F56" s="68"/>
       <c r="G56" s="68"/>
-      <c r="H56" s="168"/>
+      <c r="H56" s="166"/>
       <c r="I56" s="68"/>
       <c r="J56" s="68"/>
       <c r="K56" s="68"/>
@@ -6244,14 +6250,14 @@
       <c r="M56" s="68"/>
       <c r="N56" s="68"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B57" s="160"/>
+    <row r="57" spans="2:14">
+      <c r="B57" s="158"/>
       <c r="C57" s="68"/>
       <c r="D57" s="68"/>
       <c r="E57" s="68"/>
       <c r="F57" s="68"/>
       <c r="G57" s="68"/>
-      <c r="H57" s="168"/>
+      <c r="H57" s="166"/>
       <c r="I57" s="68"/>
       <c r="J57" s="68"/>
       <c r="K57" s="68"/>
@@ -6259,22 +6265,22 @@
       <c r="M57" s="68"/>
       <c r="N57" s="68"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B58" s="160" t="s">
+    <row r="58" spans="2:14">
+      <c r="B58" s="158" t="s">
+        <v>194</v>
+      </c>
+      <c r="C58" s="68"/>
+      <c r="D58" s="190">
+        <v>6</v>
+      </c>
+      <c r="E58" s="68" t="s">
         <v>195</v>
-      </c>
-      <c r="C58" s="68"/>
-      <c r="D58" s="192">
-        <v>6</v>
-      </c>
-      <c r="E58" s="68" t="s">
-        <v>196</v>
       </c>
       <c r="F58" s="68"/>
       <c r="G58" s="68" t="s">
-        <v>197</v>
-      </c>
-      <c r="H58" s="168"/>
+        <v>196</v>
+      </c>
+      <c r="H58" s="166"/>
       <c r="I58" s="68"/>
       <c r="J58" s="68"/>
       <c r="K58" s="68"/>
@@ -6282,14 +6288,14 @@
       <c r="M58" s="68"/>
       <c r="N58" s="68"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B59" s="160"/>
+    <row r="59" spans="2:14">
+      <c r="B59" s="158"/>
       <c r="C59" s="68"/>
       <c r="D59" s="68"/>
       <c r="E59" s="68"/>
       <c r="F59" s="68"/>
       <c r="G59" s="68"/>
-      <c r="H59" s="168"/>
+      <c r="H59" s="166"/>
       <c r="I59" s="68"/>
       <c r="J59" s="68"/>
       <c r="K59" s="68"/>
@@ -6297,14 +6303,14 @@
       <c r="M59" s="68"/>
       <c r="N59" s="68"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B60" s="160"/>
+    <row r="60" spans="2:14">
+      <c r="B60" s="158"/>
       <c r="C60" s="68"/>
       <c r="D60" s="68"/>
       <c r="E60" s="68"/>
       <c r="F60" s="68"/>
       <c r="G60" s="68"/>
-      <c r="H60" s="168"/>
+      <c r="H60" s="166"/>
       <c r="I60" s="68"/>
       <c r="J60" s="68"/>
       <c r="K60" s="68"/>
@@ -6312,9 +6318,9 @@
       <c r="M60" s="68"/>
       <c r="N60" s="68"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B61" s="160" t="s">
-        <v>130</v>
+    <row r="61" spans="2:14">
+      <c r="B61" s="158" t="s">
+        <v>129</v>
       </c>
       <c r="C61" s="68"/>
       <c r="D61" s="68">
@@ -6324,7 +6330,7 @@
       <c r="E61" s="68"/>
       <c r="F61" s="68"/>
       <c r="G61" s="68"/>
-      <c r="H61" s="168"/>
+      <c r="H61" s="166"/>
       <c r="I61" s="68"/>
       <c r="J61" s="68"/>
       <c r="K61" s="68"/>
@@ -6332,14 +6338,14 @@
       <c r="M61" s="68"/>
       <c r="N61" s="68"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B62" s="160"/>
+    <row r="62" spans="2:14">
+      <c r="B62" s="158"/>
       <c r="C62" s="68"/>
       <c r="D62" s="68"/>
       <c r="E62" s="68"/>
       <c r="F62" s="68"/>
       <c r="G62" s="68"/>
-      <c r="H62" s="168"/>
+      <c r="H62" s="166"/>
       <c r="I62" s="68"/>
       <c r="J62" s="68"/>
       <c r="K62" s="68"/>
@@ -6347,14 +6353,14 @@
       <c r="M62" s="68"/>
       <c r="N62" s="68"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B63" s="160"/>
+    <row r="63" spans="2:14">
+      <c r="B63" s="158"/>
       <c r="C63" s="68"/>
       <c r="D63" s="68"/>
       <c r="E63" s="68"/>
       <c r="F63" s="68"/>
       <c r="G63" s="68"/>
-      <c r="H63" s="168"/>
+      <c r="H63" s="166"/>
       <c r="I63" s="68"/>
       <c r="J63" s="68"/>
       <c r="K63" s="68"/>
@@ -6362,14 +6368,14 @@
       <c r="M63" s="68"/>
       <c r="N63" s="68"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B64" s="160"/>
+    <row r="64" spans="2:14">
+      <c r="B64" s="158"/>
       <c r="C64" s="68"/>
       <c r="D64" s="68"/>
       <c r="E64" s="68"/>
       <c r="F64" s="68"/>
       <c r="G64" s="68"/>
-      <c r="H64" s="168"/>
+      <c r="H64" s="166"/>
       <c r="I64" s="68"/>
       <c r="J64" s="68"/>
       <c r="K64" s="68"/>
@@ -6377,18 +6383,18 @@
       <c r="M64" s="68"/>
       <c r="N64" s="68"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B65" s="189" t="s">
-        <v>127</v>
-      </c>
-      <c r="C65" s="156"/>
-      <c r="D65" s="156">
+    <row r="65" spans="1:14">
+      <c r="B65" s="187" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="154"/>
+      <c r="D65" s="154">
         <v>8760</v>
       </c>
       <c r="E65" s="68"/>
       <c r="F65" s="68"/>
       <c r="G65" s="68"/>
-      <c r="H65" s="168"/>
+      <c r="H65" s="166"/>
       <c r="I65" s="68"/>
       <c r="J65" s="68"/>
       <c r="K65" s="68"/>
@@ -6396,14 +6402,14 @@
       <c r="M65" s="68"/>
       <c r="N65" s="68"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B66" s="171"/>
+    <row r="66" spans="1:14">
+      <c r="B66" s="169"/>
       <c r="C66" s="66"/>
       <c r="D66" s="66"/>
       <c r="E66" s="66"/>
       <c r="F66" s="66"/>
       <c r="G66" s="66"/>
-      <c r="H66" s="172"/>
+      <c r="H66" s="170"/>
       <c r="I66" s="68"/>
       <c r="J66" s="68"/>
       <c r="K66" s="68"/>
@@ -6411,7 +6417,7 @@
       <c r="M66" s="68"/>
       <c r="N66" s="68"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14">
       <c r="B67" s="68"/>
       <c r="C67" s="68"/>
       <c r="D67" s="68"/>
@@ -6426,7 +6432,7 @@
       <c r="M67" s="68"/>
       <c r="N67" s="68"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14">
       <c r="B68" s="68"/>
       <c r="C68" s="68"/>
       <c r="D68" s="68"/>
@@ -6441,7 +6447,7 @@
       <c r="M68" s="68"/>
       <c r="N68" s="68"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14">
       <c r="B69" s="68"/>
       <c r="C69" s="68"/>
       <c r="D69" s="68"/>
@@ -6456,7 +6462,7 @@
       <c r="M69" s="68"/>
       <c r="N69" s="68"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14">
       <c r="B70" s="68"/>
       <c r="C70" s="68"/>
       <c r="D70" s="68"/>
@@ -6471,7 +6477,7 @@
       <c r="M70" s="68"/>
       <c r="N70" s="68"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14">
       <c r="B71" s="68"/>
       <c r="C71" s="68"/>
       <c r="D71" s="68"/>
@@ -6486,10 +6492,10 @@
       <c r="M71" s="68"/>
       <c r="N71" s="68"/>
     </row>
-    <row r="72" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" ht="21">
       <c r="B72" s="68"/>
-      <c r="C72" s="185" t="s">
-        <v>163</v>
+      <c r="C72" s="183" t="s">
+        <v>162</v>
       </c>
       <c r="D72" s="68"/>
       <c r="E72" s="68"/>
@@ -6503,22 +6509,22 @@
       <c r="M72" s="68"/>
       <c r="N72" s="68"/>
     </row>
-    <row r="73" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" ht="15" customHeight="1"/>
+    <row r="74" spans="1:14">
       <c r="C74" s="61" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="18" customHeight="1">
       <c r="A76" s="65"/>
       <c r="C76" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="D76" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="D76" s="61" t="s">
+      <c r="E76" s="61" t="s">
         <v>166</v>
-      </c>
-      <c r="E76" s="61" t="s">
-        <v>167</v>
       </c>
       <c r="G76" s="68"/>
       <c r="H76" s="68"/>
@@ -6529,26 +6535,26 @@
       <c r="M76" s="68"/>
       <c r="N76" s="68"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14">
       <c r="D77" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="E77" s="61" t="s">
         <v>168</v>
       </c>
-      <c r="E77" s="61" t="s">
+    </row>
+    <row r="78" spans="1:14">
+      <c r="D78" s="61" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D78" s="61" t="s">
+      <c r="E78" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="E78" s="61" t="s">
+      <c r="G78" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="G78" s="61" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:14" ht="18" customHeight="1">
       <c r="A79" s="65"/>
       <c r="G79" s="68"/>
       <c r="H79" s="68"/>
@@ -6559,10 +6565,10 @@
       <c r="M79" s="68"/>
       <c r="N79" s="68"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14">
       <c r="B80" s="68"/>
       <c r="C80" s="68" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D80" s="68"/>
       <c r="E80" s="68"/>
@@ -6576,7 +6582,7 @@
       <c r="M80" s="68"/>
       <c r="N80" s="68"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16">
       <c r="B81" s="68"/>
       <c r="C81" s="68"/>
       <c r="D81" s="68"/>
@@ -6591,7 +6597,7 @@
       <c r="M81" s="68"/>
       <c r="N81" s="68"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16">
       <c r="B82" s="68"/>
       <c r="C82" s="68"/>
       <c r="D82" s="68"/>
@@ -6606,12 +6612,12 @@
       <c r="M82" s="68"/>
       <c r="N82" s="68"/>
     </row>
-    <row r="83" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" ht="15" customHeight="1">
       <c r="C83" s="61" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
       <c r="D85" s="61">
         <f>K29*100</f>
         <v>70</v>
@@ -6620,17 +6626,17 @@
         <v>49</v>
       </c>
       <c r="F85" s="61" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" ht="18" customHeight="1">
       <c r="A86" s="65"/>
       <c r="D86" s="61">
         <f>0.0032/(D85/100)</f>
         <v>4.5714285714285718E-3</v>
       </c>
       <c r="E86" s="61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G86" s="68"/>
       <c r="H86" s="68"/>
@@ -6641,22 +6647,22 @@
       <c r="M86" s="68"/>
       <c r="N86" s="68"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D88" s="186">
+    <row r="88" spans="1:16">
+      <c r="D88" s="184">
         <v>1</v>
       </c>
       <c r="E88" s="61" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" ht="18" customHeight="1">
       <c r="A89" s="65"/>
-      <c r="D89" s="186">
+      <c r="D89" s="184">
         <f>D88/44</f>
         <v>2.2727272727272728E-2</v>
       </c>
       <c r="E89" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G89" s="68"/>
       <c r="H89" s="68"/>
@@ -6667,15 +6673,15 @@
       <c r="M89" s="68"/>
       <c r="N89" s="68"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16">
       <c r="B90" s="68"/>
       <c r="C90" s="68"/>
-      <c r="D90" s="187">
+      <c r="D90" s="185">
         <f>D89*28</f>
         <v>0.63636363636363635</v>
       </c>
       <c r="E90" s="68" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F90" s="68"/>
       <c r="G90" s="68"/>
@@ -6687,10 +6693,10 @@
       <c r="M90" s="68"/>
       <c r="N90" s="68"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16">
       <c r="B91" s="68"/>
       <c r="C91" s="68"/>
-      <c r="D91" s="187">
+      <c r="D91" s="185">
         <f>0.636/D90</f>
         <v>0.99942857142857144</v>
       </c>
@@ -6705,34 +6711,34 @@
       <c r="M91" s="68"/>
       <c r="N91" s="68"/>
     </row>
-    <row r="92" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D92" s="186"/>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" ht="15" customHeight="1">
+      <c r="D92" s="184"/>
+    </row>
+    <row r="93" spans="1:16">
       <c r="C93" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="D93" s="184"/>
+    </row>
+    <row r="94" spans="1:16">
+      <c r="D94" s="184">
+        <v>510</v>
+      </c>
+      <c r="E94" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="D93" s="186"/>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D94" s="186">
-        <v>510</v>
-      </c>
-      <c r="E94" s="61" t="s">
+      <c r="P94" s="61" t="s">
         <v>180</v>
       </c>
-      <c r="P94" s="61" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:16" ht="18" customHeight="1">
       <c r="A95" s="65"/>
-      <c r="D95" s="186">
+      <c r="D95" s="184">
         <f>D86*D94*1000</f>
         <v>2331.4285714285716</v>
       </c>
       <c r="E95" s="61" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G95" s="68"/>
       <c r="H95" s="68"/>
@@ -6743,25 +6749,25 @@
       <c r="M95" s="68"/>
       <c r="N95" s="68"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D96" s="188">
+    <row r="96" spans="1:16">
+      <c r="D96" s="186">
         <f>D95*1000/636</f>
         <v>3665.7681940700809</v>
       </c>
       <c r="E96" s="61" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D97" s="186">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="D97" s="184">
         <f>D96/(E8/E9)</f>
         <v>5760.4928763958414</v>
       </c>
       <c r="E97" s="61" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="18" customHeight="1">
       <c r="A98" s="65"/>
       <c r="G98" s="68"/>
       <c r="H98" s="68"/>
@@ -6772,7 +6778,7 @@
       <c r="M98" s="68"/>
       <c r="N98" s="68"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15">
       <c r="B99" s="68"/>
       <c r="C99" s="68"/>
       <c r="D99" s="68"/>
@@ -6787,7 +6793,7 @@
       <c r="M99" s="68"/>
       <c r="N99" s="68"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15">
       <c r="B100" s="68"/>
       <c r="C100" s="68"/>
       <c r="D100" s="68"/>
@@ -6802,8 +6808,8 @@
       <c r="M100" s="68"/>
       <c r="N100" s="68"/>
     </row>
-    <row r="101" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" ht="15" customHeight="1"/>
+    <row r="104" spans="1:15" ht="18" customHeight="1" thickBot="1">
       <c r="A104" s="65"/>
       <c r="G104" s="68"/>
       <c r="H104" s="68"/>
@@ -6814,7 +6820,7 @@
       <c r="M104" s="68"/>
       <c r="N104" s="68"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15">
       <c r="B105" s="62"/>
       <c r="C105" s="63"/>
       <c r="D105" s="63"/>
@@ -6829,7 +6835,7 @@
       <c r="M105" s="63"/>
       <c r="N105" s="64"/>
     </row>
-    <row r="106" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" ht="17" customHeight="1">
       <c r="A106" s="65"/>
       <c r="B106" s="90"/>
       <c r="C106" s="69"/>
@@ -6845,16 +6851,16 @@
       <c r="M106" s="66"/>
       <c r="N106" s="91"/>
     </row>
-    <row r="107" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" ht="17" customHeight="1">
       <c r="A107" s="65"/>
-      <c r="B107" s="155"/>
-      <c r="C107" s="156" t="s">
-        <v>148</v>
-      </c>
-      <c r="D107" s="156"/>
-      <c r="E107" s="156"/>
-      <c r="F107" s="156"/>
-      <c r="G107" s="156"/>
+      <c r="B107" s="153"/>
+      <c r="C107" s="154" t="s">
+        <v>147</v>
+      </c>
+      <c r="D107" s="154"/>
+      <c r="E107" s="154"/>
+      <c r="F107" s="154"/>
+      <c r="G107" s="154"/>
       <c r="H107" s="68"/>
       <c r="I107" s="68"/>
       <c r="J107" s="68"/>
@@ -6863,14 +6869,14 @@
       <c r="M107" s="68"/>
       <c r="N107" s="68"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15">
       <c r="A108" s="65"/>
-      <c r="B108" s="155"/>
-      <c r="C108" s="156"/>
-      <c r="D108" s="156"/>
+      <c r="B108" s="153"/>
+      <c r="C108" s="154"/>
+      <c r="D108" s="154"/>
       <c r="E108" s="68"/>
-      <c r="F108" s="156"/>
-      <c r="G108" s="156"/>
+      <c r="F108" s="154"/>
+      <c r="G108" s="154"/>
       <c r="H108" s="68"/>
       <c r="I108" s="68"/>
       <c r="J108" s="68"/>
@@ -6879,13 +6885,13 @@
       <c r="M108" s="68"/>
       <c r="N108" s="68"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15">
       <c r="B109" s="67"/>
-      <c r="C109" s="159" t="s">
-        <v>76</v>
-      </c>
-      <c r="D109" s="138"/>
-      <c r="E109" s="157">
+      <c r="C109" s="157" t="s">
+        <v>75</v>
+      </c>
+      <c r="D109" s="137"/>
+      <c r="E109" s="155">
         <f>(K31+D53)/(D53+D52+K31)</f>
         <v>0.79514737093796295</v>
       </c>
@@ -6900,46 +6906,46 @@
       <c r="N109" s="68"/>
       <c r="O109" s="68"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15">
       <c r="B110" s="67"/>
-      <c r="C110" s="159" t="s">
-        <v>77</v>
-      </c>
-      <c r="D110" s="138"/>
-      <c r="E110" s="157">
+      <c r="C110" s="157" t="s">
+        <v>76</v>
+      </c>
+      <c r="D110" s="137"/>
+      <c r="E110" s="155">
         <f>D52/(D52+D53+K31)</f>
         <v>0.20485262906203705</v>
       </c>
       <c r="N110" s="68"/>
       <c r="O110" s="68"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15">
       <c r="B111" s="67"/>
-      <c r="C111" s="159" t="s">
-        <v>78</v>
-      </c>
-      <c r="D111" s="138"/>
-      <c r="E111" s="157">
+      <c r="C111" s="157" t="s">
+        <v>77</v>
+      </c>
+      <c r="D111" s="137"/>
+      <c r="E111" s="155">
         <f>(K29*K31)/(K31+D52+D53)</f>
         <v>0.51627279830998551</v>
       </c>
       <c r="N111" s="68"/>
       <c r="O111" s="68"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15">
       <c r="B112" s="67"/>
-      <c r="C112" s="159" t="s">
-        <v>79</v>
-      </c>
-      <c r="D112" s="158"/>
-      <c r="E112" s="157">
+      <c r="C112" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="D112" s="156"/>
+      <c r="E112" s="155">
         <f>1-E111</f>
         <v>0.48372720169001449</v>
       </c>
       <c r="N112" s="68"/>
       <c r="O112" s="68"/>
     </row>
-    <row r="113" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" ht="17" thickBot="1">
       <c r="B113" s="67"/>
       <c r="C113" s="68"/>
       <c r="D113" s="68"/>
@@ -6947,7 +6953,7 @@
       <c r="N113" s="68"/>
       <c r="O113" s="68"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15">
       <c r="B114" s="62"/>
       <c r="C114" s="63"/>
       <c r="D114" s="63"/>
@@ -6962,7 +6968,7 @@
       <c r="M114" s="63"/>
       <c r="N114" s="64"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15">
       <c r="A115" s="65"/>
       <c r="B115" s="90"/>
       <c r="C115" s="69" t="s">
@@ -6984,16 +6990,16 @@
       <c r="M115" s="66"/>
       <c r="N115" s="91"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15">
       <c r="A116" s="65"/>
-      <c r="B116" s="155"/>
-      <c r="C116" s="156" t="s">
-        <v>188</v>
-      </c>
-      <c r="D116" s="156"/>
-      <c r="E116" s="156"/>
-      <c r="F116" s="156"/>
-      <c r="G116" s="156"/>
+      <c r="B116" s="153"/>
+      <c r="C116" s="154" t="s">
+        <v>187</v>
+      </c>
+      <c r="D116" s="154"/>
+      <c r="E116" s="154"/>
+      <c r="F116" s="154"/>
+      <c r="G116" s="154"/>
       <c r="H116" s="68"/>
       <c r="I116" s="68"/>
       <c r="J116" s="68"/>
@@ -7002,74 +7008,74 @@
       <c r="M116" s="68"/>
       <c r="N116" s="68"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15">
       <c r="B117" s="67"/>
       <c r="C117" s="65"/>
       <c r="N117" s="68"/>
       <c r="O117" s="68"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15">
       <c r="B118" s="67"/>
       <c r="C118" s="61" t="s">
-        <v>185</v>
-      </c>
-      <c r="D118" s="186">
+        <v>184</v>
+      </c>
+      <c r="D118" s="184">
         <f>D53*1000/D65</f>
         <v>51.369863013698627</v>
       </c>
       <c r="E118" s="61" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N118" s="68"/>
       <c r="O118" s="68"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15">
       <c r="B119" s="67"/>
       <c r="C119" s="61" t="s">
-        <v>186</v>
-      </c>
-      <c r="D119" s="186">
+        <v>185</v>
+      </c>
+      <c r="D119" s="184">
         <f>K43</f>
         <v>282.84734133790732</v>
       </c>
       <c r="E119" s="61" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N119" s="68"/>
       <c r="O119" s="68"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15">
       <c r="B120" s="67"/>
       <c r="C120" s="65" t="s">
-        <v>187</v>
-      </c>
-      <c r="D120" s="188">
+        <v>186</v>
+      </c>
+      <c r="D120" s="186">
         <f>SUM(D118:D119)</f>
         <v>334.21720435160597</v>
       </c>
       <c r="E120" s="65" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N120" s="68"/>
       <c r="O120" s="68"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15">
       <c r="B121" s="67"/>
       <c r="N121" s="68"/>
       <c r="O121" s="68"/>
     </row>
-    <row r="122" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" hidden="1">
       <c r="B122" s="67"/>
       <c r="E122" s="128"/>
       <c r="N122" s="68"/>
       <c r="O122" s="68"/>
     </row>
-    <row r="123" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" ht="17" thickBot="1">
       <c r="B123" s="67"/>
       <c r="N123" s="68"/>
       <c r="O123" s="68"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15">
       <c r="B124" s="62"/>
       <c r="C124" s="63"/>
       <c r="D124" s="63"/>
@@ -7084,7 +7090,7 @@
       <c r="M124" s="63"/>
       <c r="N124" s="64"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15">
       <c r="A125" s="65"/>
       <c r="B125" s="90"/>
       <c r="C125" s="69" t="s">
@@ -7106,16 +7112,16 @@
       <c r="M125" s="66"/>
       <c r="N125" s="91"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15">
       <c r="A126" s="65"/>
-      <c r="B126" s="155"/>
-      <c r="C126" s="156" t="s">
-        <v>189</v>
-      </c>
-      <c r="D126" s="156"/>
-      <c r="E126" s="156"/>
-      <c r="F126" s="156"/>
-      <c r="G126" s="156"/>
+      <c r="B126" s="153"/>
+      <c r="C126" s="154" t="s">
+        <v>188</v>
+      </c>
+      <c r="D126" s="154"/>
+      <c r="E126" s="154"/>
+      <c r="F126" s="154"/>
+      <c r="G126" s="154"/>
       <c r="H126" s="68"/>
       <c r="I126" s="68"/>
       <c r="J126" s="68"/>
@@ -7124,721 +7130,721 @@
       <c r="M126" s="68"/>
       <c r="N126" s="68"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15">
       <c r="B127" s="67"/>
       <c r="N127" s="68"/>
       <c r="O127" s="68"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15">
       <c r="B128" s="67"/>
       <c r="C128" s="61" t="s">
-        <v>113</v>
-      </c>
-      <c r="D128" s="186">
+        <v>112</v>
+      </c>
+      <c r="D128" s="184">
         <f>D50</f>
         <v>525.42372881355936</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:5">
       <c r="B129" s="67"/>
       <c r="C129" s="61" t="s">
-        <v>112</v>
-      </c>
-      <c r="D129" s="186">
+        <v>111</v>
+      </c>
+      <c r="D129" s="184">
         <f>K44</f>
         <v>367.70154373927949</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:5">
       <c r="B130" s="67"/>
-      <c r="C130" s="156" t="s">
-        <v>111</v>
-      </c>
-      <c r="D130" s="186">
+      <c r="C130" s="154" t="s">
+        <v>110</v>
+      </c>
+      <c r="D130" s="184">
         <f>D128+D129</f>
         <v>893.12527255283885</v>
       </c>
       <c r="E130" s="61" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5">
       <c r="B131" s="67"/>
       <c r="C131" s="68"/>
-      <c r="D131" s="188">
+      <c r="D131" s="186">
         <f>D130*10000000</f>
         <v>8931252725.528389</v>
       </c>
       <c r="E131" s="65" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5">
       <c r="B132" s="67"/>
       <c r="C132" s="68"/>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:5">
       <c r="B133" s="67"/>
-      <c r="C133" s="156" t="s">
-        <v>200</v>
+      <c r="C133" s="154" t="s">
+        <v>199</v>
       </c>
       <c r="D133" s="61">
         <f>(D128*(D58/100)+D129*(K47/100))*1000000</f>
         <v>42556470.040991947</v>
       </c>
       <c r="E133" s="61" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5">
       <c r="B134" s="67"/>
       <c r="C134" s="68"/>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:5">
       <c r="B135" s="67"/>
       <c r="C135" s="68"/>
       <c r="E135" s="110"/>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:5">
       <c r="B136" s="67"/>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:5">
       <c r="B137" s="67"/>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:5">
       <c r="B138" s="67"/>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:5">
       <c r="B139" s="67"/>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:5">
       <c r="B140" s="67"/>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:5">
       <c r="B141" s="67"/>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:5">
       <c r="B142" s="67"/>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:5">
       <c r="B143" s="67"/>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:5">
       <c r="B144" s="67"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:2">
       <c r="B145" s="67"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:2">
       <c r="B146" s="67"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:2">
       <c r="B147" s="67"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:2">
       <c r="B148" s="67"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:2">
       <c r="B149" s="67"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:2">
       <c r="B150" s="67"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:2">
       <c r="B151" s="67"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:2">
       <c r="B152" s="67"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:2">
       <c r="B153" s="67"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:2">
       <c r="B154" s="67"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:2">
       <c r="B155" s="67"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:2">
       <c r="B156" s="67"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:2">
       <c r="B157" s="67"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:2">
       <c r="B158" s="67"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:2">
       <c r="B159" s="67"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:2">
       <c r="B160" s="67"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:2">
       <c r="B161" s="67"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:2">
       <c r="B162" s="67"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:2">
       <c r="B163" s="67"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:2">
       <c r="B164" s="67"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:2">
       <c r="B165" s="67"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:2">
       <c r="B166" s="67"/>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:2">
       <c r="B167" s="67"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:2">
       <c r="B168" s="67"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:2">
       <c r="B169" s="67"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:2">
       <c r="B170" s="67"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:2">
       <c r="B171" s="67"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:2">
       <c r="B172" s="67"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:2">
       <c r="B173" s="67"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:2">
       <c r="B174" s="67"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:2">
       <c r="B175" s="67"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:2">
       <c r="B176" s="67"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:2">
       <c r="B177" s="67"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:2">
       <c r="B178" s="67"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:2">
       <c r="B179" s="67"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:2">
       <c r="B180" s="67"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:2">
       <c r="B181" s="67"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:2">
       <c r="B182" s="67"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:2">
       <c r="B183" s="67"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:2">
       <c r="B184" s="129"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:2">
       <c r="B185" s="129"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:2">
       <c r="B186" s="129"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:2">
       <c r="B187" s="129"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:2">
       <c r="B188" s="129"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:2">
       <c r="B189" s="129"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:2">
       <c r="B190" s="129"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:2">
       <c r="B191" s="129"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:2">
       <c r="B192" s="129"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:2">
       <c r="B193" s="129"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:2">
       <c r="B194" s="129"/>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:2">
       <c r="B195" s="129"/>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:2">
       <c r="B196" s="129"/>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:2">
       <c r="B197" s="129"/>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:2">
       <c r="B198" s="129"/>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:2">
       <c r="B199" s="129"/>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:2">
       <c r="B200" s="129"/>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:2">
       <c r="B201" s="129"/>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:2">
       <c r="B202" s="129"/>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:2">
       <c r="B203" s="129"/>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:2">
       <c r="B204" s="129"/>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:2">
       <c r="B205" s="129"/>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:2">
       <c r="B206" s="129"/>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:2">
       <c r="B207" s="129"/>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:2">
       <c r="B208" s="129"/>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:2">
       <c r="B209" s="129"/>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:2">
       <c r="B210" s="129"/>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:2">
       <c r="B211" s="129"/>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:2">
       <c r="B212" s="129"/>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:2">
       <c r="B213" s="129"/>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:2">
       <c r="B214" s="129"/>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:2">
       <c r="B215" s="129"/>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:2">
       <c r="B216" s="129"/>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:2">
       <c r="B217" s="129"/>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:2">
       <c r="B218" s="129"/>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:2">
       <c r="B219" s="129"/>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:2">
       <c r="B220" s="129"/>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:2">
       <c r="B221" s="129"/>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:2">
       <c r="B222" s="129"/>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:2">
       <c r="B223" s="129"/>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:2">
       <c r="B224" s="129"/>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2">
       <c r="B225" s="129"/>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2">
       <c r="B226" s="129"/>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2">
       <c r="B227" s="129"/>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2">
       <c r="B228" s="129"/>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2">
       <c r="B229" s="129"/>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2">
       <c r="B230" s="129"/>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2">
       <c r="B231" s="129"/>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2">
       <c r="B232" s="129"/>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2">
       <c r="B233" s="129"/>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2">
       <c r="B234" s="129"/>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2">
       <c r="B235" s="129"/>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2">
       <c r="B236" s="129"/>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2">
       <c r="A237" s="127"/>
       <c r="B237" s="129"/>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2">
       <c r="A238" s="127"/>
       <c r="B238" s="129"/>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2">
       <c r="A239" s="127"/>
       <c r="B239" s="129"/>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2">
       <c r="A240" s="127"/>
       <c r="B240" s="129"/>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2">
       <c r="A241" s="127"/>
       <c r="B241" s="129"/>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2">
       <c r="A242" s="127"/>
       <c r="B242" s="129"/>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2">
       <c r="A243" s="127"/>
       <c r="B243" s="129"/>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2">
       <c r="A244" s="127"/>
       <c r="B244" s="129"/>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2">
       <c r="A245" s="127"/>
       <c r="B245" s="129"/>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2">
       <c r="A246" s="127"/>
       <c r="B246" s="129"/>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2">
       <c r="A247" s="127"/>
       <c r="B247" s="129"/>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2">
       <c r="A248" s="127"/>
       <c r="B248" s="129"/>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2">
       <c r="A249" s="127"/>
       <c r="B249" s="129"/>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2">
       <c r="A250" s="127"/>
       <c r="B250" s="129"/>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2">
       <c r="A251" s="127"/>
       <c r="B251" s="129"/>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2">
       <c r="A252" s="127"/>
       <c r="B252" s="129"/>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2">
       <c r="A253" s="127"/>
       <c r="B253" s="129"/>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2">
       <c r="A254" s="127"/>
       <c r="B254" s="129"/>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2">
       <c r="A255" s="127"/>
       <c r="B255" s="129"/>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2">
       <c r="A256" s="127"/>
       <c r="B256" s="129"/>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2">
       <c r="A257" s="127"/>
       <c r="B257" s="129"/>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2">
       <c r="A258" s="127"/>
       <c r="B258" s="129"/>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2">
       <c r="A259" s="127"/>
       <c r="B259" s="129"/>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2">
       <c r="A260" s="127"/>
       <c r="B260" s="129"/>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2">
       <c r="A261" s="127"/>
       <c r="B261" s="129"/>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2">
       <c r="A262" s="127"/>
       <c r="B262" s="129"/>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2">
       <c r="A263" s="127"/>
       <c r="B263" s="129"/>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2">
       <c r="A264" s="127"/>
       <c r="B264" s="129"/>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2">
       <c r="A265" s="127"/>
       <c r="B265" s="129"/>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2">
       <c r="A266" s="127"/>
       <c r="B266" s="129"/>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2">
       <c r="A267" s="127"/>
       <c r="B267" s="129"/>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2">
       <c r="A268" s="127"/>
       <c r="B268" s="129"/>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2">
       <c r="A269" s="127"/>
       <c r="B269" s="129"/>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2">
       <c r="A270" s="127"/>
       <c r="B270" s="129"/>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2">
       <c r="A271" s="127"/>
       <c r="B271" s="129"/>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2">
       <c r="A272" s="127"/>
       <c r="B272" s="129"/>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2">
       <c r="A273" s="127"/>
       <c r="B273" s="129"/>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2">
       <c r="A274" s="127"/>
       <c r="B274" s="129"/>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2">
       <c r="A275" s="127"/>
       <c r="B275" s="129"/>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2">
       <c r="A276" s="127"/>
       <c r="B276" s="129"/>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2">
       <c r="A277" s="127"/>
       <c r="B277" s="129"/>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2">
       <c r="A278" s="127"/>
       <c r="B278" s="129"/>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2">
       <c r="A279" s="127"/>
       <c r="B279" s="129"/>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2">
       <c r="A280" s="127"/>
       <c r="B280" s="129"/>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2">
       <c r="A281" s="127"/>
       <c r="B281" s="129"/>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2">
       <c r="A282" s="127"/>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2">
       <c r="A283" s="127"/>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2">
       <c r="A284" s="127"/>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2">
       <c r="A285" s="127"/>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2">
       <c r="A286" s="127"/>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2">
       <c r="A287" s="127"/>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2">
       <c r="A288" s="127"/>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:1">
       <c r="A289" s="127"/>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:1">
       <c r="A290" s="127"/>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:1">
       <c r="A291" s="127"/>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:1">
       <c r="A292" s="127"/>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:1">
       <c r="A293" s="127"/>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:1">
       <c r="A294" s="127"/>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:1">
       <c r="A295" s="127"/>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:1">
       <c r="A296" s="127"/>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:1">
       <c r="A297" s="127"/>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:1">
       <c r="A298" s="127"/>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:1">
       <c r="A299" s="127"/>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:1">
       <c r="A300" s="127"/>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:1">
       <c r="A301" s="127"/>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:1">
       <c r="A302" s="127"/>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:1">
       <c r="A303" s="127"/>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:1">
       <c r="A304" s="127"/>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:1">
       <c r="A305" s="127"/>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:1">
       <c r="A306" s="127"/>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:1">
       <c r="A307" s="127"/>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:1">
       <c r="A308" s="127"/>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:1">
       <c r="A309" s="127"/>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:1">
       <c r="A310" s="127"/>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:1">
       <c r="A311" s="127"/>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:1">
       <c r="A312" s="127"/>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:1">
       <c r="A313" s="127"/>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:1">
       <c r="A314" s="127"/>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:1">
       <c r="A315" s="127"/>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:1">
       <c r="A316" s="127"/>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:1">
       <c r="A317" s="127"/>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:1">
       <c r="A318" s="127"/>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:1">
       <c r="A319" s="127"/>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:1">
       <c r="A320" s="127"/>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:1">
       <c r="A321" s="127"/>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:1">
       <c r="A322" s="127"/>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:1">
       <c r="A323" s="127"/>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:1">
       <c r="A324" s="127"/>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:1">
       <c r="A325" s="127"/>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:1">
       <c r="A326" s="127"/>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:1">
       <c r="A327" s="127"/>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:1">
       <c r="A328" s="127"/>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:1">
       <c r="A329" s="127"/>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:1">
       <c r="A330" s="127"/>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:1">
       <c r="A331" s="127"/>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:1">
       <c r="A332" s="127"/>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:1">
       <c r="A333" s="127"/>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:1">
       <c r="A334" s="127"/>
     </row>
   </sheetData>
